--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2631,14 +2631,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 54362-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2745,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54362-2021</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44470</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44447</v>
+        <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2859,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45180</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2916,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45246</v>
+        <v>44850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>7.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2973,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3030,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3087,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45749</v>
+        <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3106,13 +3106,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3149,14 +3144,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,8 +3163,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45187.483125</v>
+        <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45187</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44467</v>
+        <v>44858</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45180</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45884</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>45884.3912037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4118,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44853</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44446</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45884</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45093</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45265</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4365,13 +4365,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4408,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4428,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4465,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44789</v>
+        <v>45401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4485,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4522,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4541,8 +4536,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4579,14 +4579,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4636,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45252</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45561</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4769,8 +4769,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>8.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4807,14 +4812,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4827,7 +4832,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4864,14 +4869,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4884,7 +4889,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4921,14 +4926,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45330</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4941,7 +4946,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4985,7 +4990,7 @@
         <v>45777.60306712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5035,14 +5040,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5055,7 +5060,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5092,14 +5097,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45075</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5112,7 +5117,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5149,14 +5154,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5168,8 +5173,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5206,14 +5216,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5226,7 +5236,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5263,14 +5273,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5283,7 +5293,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5320,14 +5330,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5340,7 +5350,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5377,14 +5387,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5397,7 +5407,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5434,14 +5444,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44467</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5454,7 +5464,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5491,14 +5501,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45281</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5511,7 +5521,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5548,14 +5558,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5568,7 +5578,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5605,14 +5615,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5625,7 +5635,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>6.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5662,14 +5672,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5682,7 +5692,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5719,14 +5729,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5739,7 +5749,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5776,14 +5786,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44850</v>
+        <v>44866</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5796,7 +5806,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5843,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5853,7 +5863,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5890,14 +5900,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5910,7 +5920,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5947,14 +5957,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5967,7 +5977,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +6014,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45096</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6034,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6071,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45915</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6091,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6128,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45021</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6148,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6185,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45330</v>
+        <v>45265</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6194,8 +6204,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6247,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6267,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6304,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6324,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6361,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45489</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6381,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6418,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44866</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6438,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6475,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44596</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6495,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6532,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45939</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6552,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>9.9</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6589,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45489</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6631,14 +6646,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6666,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.9</v>
+        <v>13.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6703,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6708,7 +6723,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6745,14 +6760,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6765,7 +6780,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6802,14 +6817,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6822,7 +6837,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6859,14 +6874,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6879,7 +6894,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6916,14 +6931,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>44789</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6936,7 +6951,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6988,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6993,7 +7008,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>13.5</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7030,14 +7045,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46000</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7050,7 +7065,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7087,14 +7102,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7107,7 +7122,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7144,14 +7159,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7164,7 +7179,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7201,14 +7216,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7221,7 +7236,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7258,14 +7273,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7278,7 +7293,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7315,14 +7330,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7335,7 +7350,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>15.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7372,14 +7387,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7392,7 +7407,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>10.6</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7429,14 +7444,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45118</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7449,7 +7464,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7486,14 +7501,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7506,7 +7521,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7543,14 +7558,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45562</v>
+        <v>45280</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7562,13 +7577,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7605,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7625,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>15.2</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7662,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7682,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7719,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7739,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7776,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7796,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7833,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>44447</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7853,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7890,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44252</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7910,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7947,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45986</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7967,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8004,14 +8014,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45237</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8024,7 +8034,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8061,14 +8071,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8081,7 +8091,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8118,14 +8128,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>44963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8138,7 +8148,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8182,7 +8192,7 @@
         <v>45961.36596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8232,14 +8242,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45356</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8252,7 +8262,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8289,14 +8299,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45614</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8309,7 +8319,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8346,14 +8356,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>44252</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8366,7 +8376,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8403,14 +8413,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44958</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8423,7 +8433,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8460,14 +8470,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45246</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8480,7 +8490,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8517,14 +8527,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44487</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8537,7 +8547,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8581,7 +8591,7 @@
         <v>45618</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8636,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45246</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45882.638125</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8941,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45125</v>
+        <v>45096</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9169,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9226,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9263,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9283,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9320,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>44467</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9340,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9377,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9434,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9454,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9491,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45561</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9510,13 +9520,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>8.6</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9560,7 +9565,7 @@
         <v>45146.43876157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9610,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9629,8 +9634,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9667,14 +9677,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 6383-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45370</v>
+        <v>44235</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9687,7 +9697,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9724,14 +9734,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9744,7 +9754,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9781,14 +9791,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9801,7 +9811,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9838,14 +9848,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45168</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9858,7 +9868,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9895,14 +9905,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9914,13 +9924,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9957,14 +9962,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9977,7 +9982,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10014,14 +10019,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10034,7 +10039,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10071,14 +10076,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>44804</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10091,7 +10096,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10128,14 +10133,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10148,7 +10153,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10185,14 +10190,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45594</v>
+        <v>45075</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10205,7 +10210,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10242,14 +10247,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45028</v>
+        <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10262,7 +10267,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10299,14 +10304,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44803</v>
+        <v>45281</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10319,7 +10324,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10356,14 +10361,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44872.615</v>
+        <v>46000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10376,7 +10381,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10413,14 +10418,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10432,13 +10437,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10589,14 +10589,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>44467</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10646,14 +10646,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45202.7725</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10703,14 +10703,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45125</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10760,14 +10760,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10817,14 +10817,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10874,14 +10874,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45749</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10893,13 +10893,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10936,14 +10931,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44721</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10956,7 +10951,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10993,14 +10988,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44858</v>
+        <v>45020</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11013,7 +11008,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11050,14 +11045,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45265</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11069,13 +11064,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11112,14 +11102,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11132,7 +11122,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11169,14 +11159,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45265</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11188,13 +11178,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11231,14 +11216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45265</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11250,8 +11235,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11288,14 +11278,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45167</v>
+        <v>45093</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11308,7 +11298,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11345,14 +11335,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44963</v>
+        <v>45562</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11364,8 +11354,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11402,14 +11397,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11422,7 +11417,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11459,14 +11454,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45986</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11479,7 +11474,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11516,14 +11511,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45280</v>
+        <v>44872.615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11536,7 +11531,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11573,14 +11568,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45237</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11593,7 +11588,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11630,14 +11625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44893</v>
+        <v>45749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11649,8 +11644,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11687,14 +11687,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>45174</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11744,14 +11744,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11801,14 +11801,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45341</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45356</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11915,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>44721</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45243</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 6383-2021</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44235</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45243</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44804</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44858</v>
+        <v>45614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45330</v>
+        <v>44467</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44487</v>
+        <v>44803</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>8.9</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>44446</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45118</v>
+        <v>45370</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45341</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12542,14 +12542,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44467</v>
+        <v>45489</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12599,14 +12599,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12656,14 +12656,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45187.483125</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12713,14 +12713,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12770,14 +12770,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12827,14 +12827,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12884,14 +12884,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12941,14 +12941,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12998,14 +12998,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>7.6</v>
+        <v>0.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13055,14 +13055,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45174</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13112,14 +13112,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13169,14 +13169,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45020</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13226,14 +13226,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45075</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13283,14 +13283,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45490</v>
+        <v>45252</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13340,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13397,14 +13397,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13454,14 +13454,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13511,14 +13511,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13568,14 +13568,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13625,14 +13625,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13682,14 +13682,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13739,14 +13739,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44284</v>
+        <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13758,13 +13758,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>3.6</v>
+        <v>8.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13801,14 +13796,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45707</v>
+        <v>44487</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13821,7 +13816,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13858,14 +13853,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44928</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13878,7 +13873,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13915,14 +13910,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45485</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13935,7 +13930,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13972,14 +13967,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13992,7 +13987,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14029,14 +14024,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45818</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14049,7 +14044,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14086,14 +14081,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14106,7 +14101,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14143,14 +14138,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14163,7 +14158,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14200,14 +14195,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14220,7 +14215,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14257,14 +14252,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14277,7 +14272,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14314,14 +14309,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14334,7 +14329,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14371,14 +14366,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14391,7 +14386,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14428,14 +14423,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14448,7 +14443,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14485,14 +14480,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14505,7 +14500,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14542,14 +14537,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45028</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14562,7 +14557,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14599,14 +14594,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45401</v>
+        <v>44596</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14619,7 +14614,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14656,14 +14651,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14676,7 +14671,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14713,14 +14708,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14770,14 +14765,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14790,7 +14785,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14827,14 +14822,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14847,7 +14842,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14884,14 +14879,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14904,7 +14899,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14941,14 +14936,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14961,7 +14956,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14998,14 +14993,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45707</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15018,7 +15013,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15055,14 +15050,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>44284</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15074,8 +15069,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15112,14 +15112,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>44928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15169,14 +15169,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15226,14 +15226,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15283,14 +15283,14 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45818</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45180</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44918.57599537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44455.51825231482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>45597.30930555556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44858</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45798.39635416667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45712.4794212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45743.32578703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45799.47976851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>45799.48524305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45799.49456018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45802.92706018518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>45884.3912037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45805.31577546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45805.31810185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45884</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45699.46458333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45806.27789351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45743.87862268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>45401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45817.53369212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45897.56592592593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45896.4434837963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45561</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45832.80668981482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45345.36196759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45330</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>45777.60306712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45902.68703703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45902.67114583333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>45621.63099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45905.71422453703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45905.72167824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45905.72809027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44602.54028935185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>45174.75674768518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>45916.48497685185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45916.49435185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44866</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>45831.50364583333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45831.51761574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45827.46755787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>45832.8088425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45832.83453703704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>45265</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44337.42444444444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45832.81900462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45925.28489583333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45925.29628472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45925.31177083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45925.32434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45489</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45929.50806712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45442.50300925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45931.51586805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44438.52559027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45095.5359375</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44789</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45936.51135416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45813.62960648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45371.48430555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45371.49185185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45813.63689814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44804.49277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45946.35024305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45852.30276620371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45118</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45490</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45280</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45511.61868055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45511.62046296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45868.43549768518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45868.42884259259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44447</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45644.68480324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45875.67362268519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>45237</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>45961.42650462963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45961.36596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45881.46743055555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45880.49107638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>44252</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>45880.51369212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44918.56108796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45554.61420138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45618</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45246</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45882.638125</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44826.47293981481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45973.41554398148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>45883.29547453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44588.74134259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45762.36817129629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45974.54376157407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45975.48846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45096</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45978.81270833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45978.80552083333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44467</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45986.72568287037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44698.27141203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45146.43876157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44553.68085648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44235</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45096.61869212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44750.33450231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>46034.55841435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45995.30582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44950.27739583333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45716.57958333333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44804</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45999.65309027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45075</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45281</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>46000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>46002.69364583334</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>46002.49144675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>46002.48832175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44467</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>45202.7725</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45125</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>45594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45700.65645833333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>45700.66422453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45639.49689814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>45020</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>46013.49186342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>46010.49047453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44830.36655092592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45265</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45093</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45562</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45986</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44872.615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45468.5937962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45174</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>45691.56738425926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45341</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45356</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44721</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45243</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45124.57806712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>45303.81549768519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45538.6312962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44467</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>44803</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44446</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>45370</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45448.5952662037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45489</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45187.483125</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45700.60572916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45600.63541666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45187.53253472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45187.53527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45581.59896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44855.40680555555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45049.48990740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44893.60265046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45636.58703703704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45187.53984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45252</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45636.59827546297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44593.65674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45770.30033564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45544.5402662037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45544.54657407408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45700.6591087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44487</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44732.56100694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45700.62923611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45322.93523148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45391.76952546297</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45187.48538194445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>44889.27608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45012.40119212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45447.89599537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45748.40296296297</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>44721.63243055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45028</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44596</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45777.73329861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45777.73553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45777.60085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45777.60643518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45777.72783564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45777.73825231481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>45707</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44284</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45422.50045138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45818</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45180</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44918.57599537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44455.51825231482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>45597.30930555556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44858</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45798.39635416667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45712.4794212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45743.32578703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45799.47976851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>45799.48524305555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45799.49456018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>45802.92706018518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>45884.3912037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45805.31577546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45805.31810185185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45884</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45699.46458333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45806.27789351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45743.87862268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>45401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45749</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45817.53369212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45897.56592592593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45896.4434837963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45561</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45832.80668981482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45345.36196759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45330</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>45777.60306712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45902.68703703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45902.67114583333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>45621.63099537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45905.71422453703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45905.72167824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45905.72809027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44602.54028935185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>45174.75674768518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>45916.48497685185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45916.49435185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44866</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>45831.50364583333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45831.51761574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45827.46755787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>45832.8088425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45832.83453703704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>45265</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44337.42444444444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45832.81900462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45925.28489583333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45925.29628472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45925.31177083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45925.32434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45489</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45929.50806712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45442.50300925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45931.51586805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44438.52559027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45095.5359375</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44789</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45936.51135416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45813.62960648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45371.48430555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45371.49185185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45813.63689814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44804.49277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45946.35024305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45852.30276620371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45118</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45490</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45280</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45511.61868055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45511.62046296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45868.43549768518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45868.42884259259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44447</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45644.68480324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45875.67362268519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>45237</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>45961.42650462963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45961.36596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45881.46743055555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45880.49107638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>44252</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>45880.51369212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44918.56108796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45554.61420138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45618</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45246</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45882.638125</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44826.47293981481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45973.41554398148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>45883.29547453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44588.74134259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45762.36817129629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45974.54376157407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45975.48846064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45096</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45978.81270833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45978.80552083333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44467</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45986.72568287037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44698.27141203704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45146.43876157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44553.68085648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44235</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45096.61869212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44750.33450231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>46034.55841435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45995.30582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44950.27739583333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45716.57958333333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44804</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45999.65309027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45075</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45281</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>46000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>46002.69364583334</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>46002.49144675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>46002.48832175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44467</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>45202.7725</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45125</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>45594</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45700.65645833333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>45700.66422453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45639.49689814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>45020</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>46013.49186342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>46010.49047453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44830.36655092592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45265</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45093</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45562</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45021</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45986</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44872.615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45468.5937962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45174</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>45691.56738425926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45341</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45356</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44721</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45243</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45124.57806712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>45303.81549768519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45538.6312962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44467</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>44803</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44446</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>45370</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45448.5952662037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45489</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45187.483125</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45700.60572916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45600.63541666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45187.53253472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45187.53527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45581.59896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44855.40680555555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45049.48990740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44893.60265046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45636.58703703704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45187.53984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45252</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45636.59827546297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44593.65674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45770.30033564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45544.5402662037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45544.54657407408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45700.6591087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44487</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44732.56100694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45700.62923611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45322.93523148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45391.76952546297</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45187.48538194445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>44889.27608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45012.40119212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45447.89599537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45748.40296296297</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>44721.63243055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45028</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44596</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45777.73329861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45777.73553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45777.60085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45777.60643518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45777.72783564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45777.73825231481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>45707</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44284</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45422.50045138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45818</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z257"/>
+  <dimension ref="A1:Z256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 55069-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,13 +1448,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1491,14 +1486,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55069-2021</t>
+          <t>A 50444-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44474.63831018518</v>
+        <v>44866.47050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1506,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1548,14 +1543,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 50444-2022</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44866.47050925926</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1567,8 +1562,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45749</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,6 +2705,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2745,14 +2750,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45187.483125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2770,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2807,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45330</v>
+        <v>45187</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2822,7 +2827,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2864,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45180</v>
+        <v>45202.7725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2884,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2921,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44850</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2941,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2978,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>44789</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2998,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3035,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45252</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3050,7 +3055,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3087,14 +3092,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45167</v>
+        <v>45075</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3107,7 +3112,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45265</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,13 +3168,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44853</v>
+        <v>45281</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>44850</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>7.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45246</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45330</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>44467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45096</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44858</v>
+        <v>45489</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45021</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>44866</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>44596</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45562</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4080,8 +4080,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4123,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4143,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4200,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4237,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45884</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4257,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4294,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4314,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4351,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4371,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4408,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4428,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4465,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45401</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4485,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4522,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45749</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4536,13 +4541,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4579,14 +4579,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4636,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45561</v>
+        <v>44252</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4769,13 +4769,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4812,14 +4807,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4832,7 +4827,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4869,14 +4864,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45356</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4889,7 +4884,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4926,14 +4921,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45330</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4946,7 +4941,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4983,14 +4978,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5003,7 +4998,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5040,14 +5035,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5060,7 +5055,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5097,14 +5092,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5117,7 +5112,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5154,14 +5149,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5173,13 +5168,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5216,14 +5206,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5236,7 +5226,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5273,14 +5263,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45614</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5293,7 +5283,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5330,14 +5320,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5350,7 +5340,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5387,14 +5377,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>44958</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5407,7 +5397,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5444,14 +5434,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5464,7 +5454,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5501,14 +5491,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5521,7 +5511,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5558,14 +5548,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45915</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5578,7 +5568,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5615,14 +5605,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>44487</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5635,7 +5625,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5672,14 +5662,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5692,7 +5682,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5729,14 +5719,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5749,7 +5739,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5786,14 +5776,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44866</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5806,7 +5796,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5843,14 +5833,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44958</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5863,7 +5853,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5900,14 +5890,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5920,7 +5910,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5957,14 +5947,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5977,7 +5967,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6014,14 +6004,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6034,7 +6024,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6071,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6091,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6128,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6148,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6185,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45265</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6204,13 +6194,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6247,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45125</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6267,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6304,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6324,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6361,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6381,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6418,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6438,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6475,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6495,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6532,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6552,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6589,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45489</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6609,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6646,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6666,7 +6651,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>13.5</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6703,14 +6688,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6723,7 +6708,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6760,14 +6745,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6780,7 +6765,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6817,14 +6802,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6837,7 +6822,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6874,14 +6859,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6894,7 +6879,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6931,14 +6916,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44789</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6951,7 +6936,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6988,14 +6973,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45882.638125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7008,7 +6993,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7045,14 +7030,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7065,7 +7050,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7102,14 +7087,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7122,7 +7107,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7159,14 +7144,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45884</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7179,7 +7164,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7216,14 +7201,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7236,7 +7221,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7273,14 +7258,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7293,7 +7278,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7330,14 +7315,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7350,7 +7335,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>15.2</v>
+        <v>5.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7387,14 +7372,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7407,7 +7392,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7444,14 +7429,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45118</v>
+        <v>45028</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7464,7 +7449,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7501,14 +7486,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45490</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7521,7 +7506,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7558,14 +7543,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45280</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7578,7 +7563,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7600,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7620,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7657,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7677,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7714,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>44872.615</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7734,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7771,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7791,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7828,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44447</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7848,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7885,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>44447</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7905,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7942,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7962,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8014,14 +7999,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45237</v>
+        <v>45246</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8034,7 +8019,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8071,14 +8056,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8091,7 +8076,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8128,14 +8113,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44963</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8148,7 +8133,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8185,14 +8170,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8205,7 +8190,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8242,14 +8227,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8262,7 +8247,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8299,14 +8284,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45180</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8319,7 +8304,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8356,14 +8341,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44252</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8376,7 +8361,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8413,14 +8398,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8433,7 +8418,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.8</v>
+        <v>15.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8470,14 +8455,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>44853</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8490,7 +8475,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8527,14 +8512,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>44446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8547,7 +8532,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8584,14 +8569,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45618</v>
+        <v>45093</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8603,13 +8588,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8626,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45246</v>
+        <v>45265</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8665,8 +8645,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8688,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45882.638125</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8708,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8745,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8765,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8802,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8822,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8859,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8879,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8916,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8936,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8973,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +8993,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9030,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9050,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9087,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45618</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9121,8 +9106,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45096</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9169,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9206,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9226,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9263,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9283,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9320,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44467</v>
+        <v>45246</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9340,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9377,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44893</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9397,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9434,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9454,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9491,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9511,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9548,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9568,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9605,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9634,13 +9624,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9677,14 +9662,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6383-2021</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44235</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9697,7 +9682,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9734,14 +9719,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9754,7 +9739,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9791,14 +9776,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45561</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9810,8 +9795,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9848,14 +9838,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9868,7 +9858,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9905,14 +9895,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45370</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9925,7 +9915,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9962,14 +9952,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9982,7 +9972,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10019,14 +10009,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45168</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10039,7 +10029,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10076,14 +10066,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44804</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10095,8 +10085,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10133,14 +10128,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10153,7 +10148,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10190,14 +10185,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45075</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10210,7 +10205,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10247,14 +10242,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45939</v>
+        <v>45594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10267,7 +10262,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>9.9</v>
+        <v>4.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10304,14 +10299,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45281</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10324,7 +10319,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10361,14 +10356,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46000</v>
+        <v>44803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10381,7 +10376,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10418,14 +10413,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10437,8 +10432,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>10.6</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>9.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10589,14 +10589,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44467</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10646,14 +10646,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10703,14 +10703,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45125</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10760,14 +10760,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45594</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10817,14 +10817,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>46000</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10874,14 +10874,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10931,14 +10931,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10988,14 +10988,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45020</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11045,14 +11045,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11102,14 +11102,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11159,14 +11159,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>10.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11216,14 +11216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45265</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11235,13 +11235,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11278,14 +11273,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45093</v>
+        <v>45749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11297,8 +11292,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11335,14 +11335,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45562</v>
+        <v>44721</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11354,13 +11354,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11397,14 +11392,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45021</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11417,7 +11412,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11454,14 +11449,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45986</v>
+        <v>44858</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11474,7 +11469,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11511,14 +11506,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44872.615</v>
+        <v>45265</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11530,8 +11525,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11568,14 +11568,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11625,14 +11625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45749</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11644,13 +11644,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11687,14 +11682,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45174</v>
+        <v>45265</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11706,8 +11701,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11744,14 +11744,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11801,14 +11801,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45341</v>
+        <v>45986</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45356</v>
+        <v>45167</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11915,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44721</v>
+        <v>44963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45243</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45280</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45237</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45614</v>
+        <v>44893</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44467</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44803</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44446</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45370</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12542,14 +12542,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45489</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12599,14 +12599,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44858</v>
+        <v>45243</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12656,14 +12656,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45187.483125</v>
+        <v>44804</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12713,14 +12713,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12770,14 +12770,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45330</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12827,14 +12827,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>44487</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12884,14 +12884,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12941,14 +12941,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45118</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12998,14 +12998,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45341</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13055,14 +13055,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13112,14 +13112,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13169,14 +13169,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13226,14 +13226,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13283,14 +13283,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45252</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13340,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13397,14 +13397,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45075</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13454,14 +13454,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13511,14 +13511,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13568,14 +13568,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45174</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13625,14 +13625,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13682,14 +13682,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45020</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13739,14 +13739,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44487</v>
+        <v>45075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13796,14 +13796,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44487</v>
+        <v>45490</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13853,14 +13853,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13967,14 +13967,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14024,14 +14024,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14081,14 +14081,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14138,14 +14138,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45187</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14195,14 +14195,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14252,14 +14252,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>44284</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14271,8 +14271,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14309,14 +14314,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45168</v>
+        <v>45707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14329,7 +14334,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14366,14 +14371,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>44928</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14386,7 +14391,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.9</v>
+        <v>1.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14423,14 +14428,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45485</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14443,7 +14448,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14480,14 +14485,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14500,7 +14505,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14537,14 +14542,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45028</v>
+        <v>45818</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14557,7 +14562,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14594,14 +14599,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44596</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14614,7 +14619,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14651,14 +14656,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14671,7 +14676,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14708,14 +14713,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14728,7 +14733,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14765,14 +14770,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14785,7 +14790,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14822,14 +14827,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14842,7 +14847,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14879,14 +14884,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14899,7 +14904,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14936,14 +14941,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14956,7 +14961,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14993,14 +14998,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45707</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15013,7 +15018,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15050,14 +15055,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44284</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15069,13 +15074,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15112,14 +15112,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44928</v>
+        <v>45401</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15169,14 +15169,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15223,17 +15223,17 @@
       </c>
       <c r="R255" s="2" t="inlineStr"/>
     </row>
-    <row r="256" ht="15" customHeight="1">
+    <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45485</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15279,63 +15279,6 @@
         <v>0</v>
       </c>
       <c r="R256" s="2" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>A 28312-2025</t>
-        </is>
-      </c>
-      <c r="B257" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C257" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G257" t="n">
-        <v>0</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>0</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0</v>
-      </c>
-      <c r="L257" t="n">
-        <v>0</v>
-      </c>
-      <c r="M257" t="n">
-        <v>0</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0</v>
-      </c>
-      <c r="P257" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q257" t="n">
-        <v>0</v>
-      </c>
-      <c r="R257" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38197-2025</t>
+          <t>A 38355-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45882.67037037037</v>
+        <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,133 +786,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38197-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45882.67037037037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38355-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45161</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45749</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,11 +2705,6 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2750,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45180</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2770,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2807,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45187</v>
+        <v>44850</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2827,7 +2822,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2864,14 +2859,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2884,7 +2879,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2921,14 +2916,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2941,7 +2936,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2978,14 +2973,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44789</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2998,7 +2993,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3035,14 +3030,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45252</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3055,7 +3050,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3092,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45075</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3112,7 +3107,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3149,14 +3144,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3169,7 +3164,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3201,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45281</v>
+        <v>45330</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3221,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3258,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44850</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3315,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>44487</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3335,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3372,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45330</v>
+        <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3392,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3429,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44467</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3449,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3486,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45096</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3506,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3543,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3563,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3600,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45489</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3620,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3657,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45021</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3677,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3714,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44866</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3734,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3771,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44596</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3848,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3885,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45884</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3905,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3942,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3962,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +3999,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45489</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4019,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4056,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45562</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4080,13 +4075,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4123,14 +4113,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4143,7 +4133,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4180,14 +4170,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45187</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4200,7 +4190,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4237,14 +4227,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4257,7 +4247,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4294,14 +4284,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4314,7 +4304,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4351,14 +4341,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4371,7 +4361,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4408,14 +4398,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4428,7 +4418,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4465,14 +4455,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45168</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4485,7 +4475,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4522,14 +4512,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4542,7 +4532,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>7.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4579,14 +4569,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45265</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4598,8 +4588,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4656,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>44853</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44252</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4827,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45356</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4921,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4941,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4978,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45028</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4998,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5035,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45246</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5055,7 +5050,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5092,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>44596</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5112,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5149,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5169,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5206,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5226,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5263,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45614</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5283,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5320,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5340,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5377,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44958</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5397,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5434,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5454,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5491,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5511,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5548,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5568,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5605,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44487</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5625,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5662,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5682,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5719,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5739,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5776,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5796,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5853,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5890,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45707</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5910,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5947,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>44284</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5966,8 +5961,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +6004,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>44928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>44858</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45125</v>
+        <v>45485</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45915</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6403,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6460,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6517,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45818</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6574,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6631,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45915</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6688,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6745,14 +6745,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6802,14 +6802,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6859,14 +6859,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6878,8 +6878,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6916,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6936,7 +6941,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6993,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7030,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7050,7 +7055,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7087,14 +7092,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7107,7 +7112,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7144,14 +7149,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45884</v>
+        <v>45561</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7163,8 +7168,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>8.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7201,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45330</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7221,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7258,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45401</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7278,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7315,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7334,8 +7344,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7372,14 +7387,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7392,7 +7407,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7429,14 +7444,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45028</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7449,7 +7464,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7486,14 +7501,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7506,7 +7521,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7543,14 +7558,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7563,7 +7578,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7600,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7620,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7657,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7677,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7714,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44872.615</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7734,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7771,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7791,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7828,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7848,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>13.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7885,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44447</v>
+        <v>44866</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7905,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7942,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>44958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7962,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7999,14 +8014,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45246</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8019,7 +8034,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8056,14 +8071,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8076,7 +8091,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8113,14 +8128,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8133,7 +8148,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8170,14 +8185,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8190,7 +8205,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8227,14 +8242,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44467</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8247,7 +8262,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8284,14 +8299,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45180</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8304,7 +8319,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8341,14 +8356,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45265</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8360,8 +8375,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8398,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8418,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>15.2</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8455,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44853</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8475,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8512,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44446</v>
+        <v>45489</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8532,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8569,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45093</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8589,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8626,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45265</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8645,13 +8665,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8695,7 +8710,7 @@
         <v>44438.52559027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8745,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8765,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8802,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8822,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8859,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8879,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8916,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>44789</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8936,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8973,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8993,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9030,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9050,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9087,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45618</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9106,13 +9121,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9169,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45118</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9263,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9283,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9320,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45246</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9340,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9377,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45490</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9397,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9434,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45280</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9454,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9491,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9511,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9548,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9568,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9605,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9625,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>15.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9662,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9682,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9719,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>44447</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9739,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9776,14 +9786,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45561</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9795,13 +9805,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9838,14 +9843,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9858,7 +9863,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9895,14 +9900,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45370</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9915,7 +9920,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9952,14 +9957,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9972,7 +9977,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10009,14 +10014,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45168</v>
+        <v>45882.638125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10029,7 +10034,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10066,14 +10071,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10085,13 +10090,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10128,14 +10128,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45237</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10185,14 +10185,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>44963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10242,14 +10242,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45594</v>
+        <v>44252</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10299,14 +10299,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10356,14 +10356,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44803</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10413,14 +10413,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45246</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10432,13 +10432,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10470,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10490,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10527,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45939</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10552,7 +10547,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>9.9</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10589,14 +10584,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10609,7 +10604,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10646,14 +10641,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10666,7 +10661,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10703,14 +10698,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10723,7 +10718,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10760,14 +10755,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45096</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10780,7 +10775,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10817,14 +10812,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46000</v>
+        <v>45618</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10836,8 +10831,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10874,14 +10874,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10931,14 +10931,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10988,14 +10988,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11045,14 +11045,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>44467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11102,14 +11102,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11159,14 +11159,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>10.6</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11216,14 +11216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>44893</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11273,14 +11273,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45749</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11292,13 +11292,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11335,14 +11330,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44721</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11355,7 +11350,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11392,14 +11387,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11412,7 +11407,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11449,14 +11444,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44858</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11468,8 +11463,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11506,14 +11506,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45265</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11525,13 +11525,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11568,14 +11563,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11588,7 +11583,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11625,14 +11620,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11645,7 +11640,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11682,14 +11677,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45265</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11701,13 +11696,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11744,14 +11734,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11764,7 +11754,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11801,14 +11791,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45986</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11821,7 +11811,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11848,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45167</v>
+        <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11878,7 +11868,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11905,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44963</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11925,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11962,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11992,7 +11982,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12019,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45281</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12039,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12076,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45280</v>
+        <v>45939</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12096,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.5</v>
+        <v>9.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12133,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45237</v>
+        <v>46000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12163,7 +12153,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12190,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44893</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12220,7 +12210,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12257,14 +12247,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12277,7 +12267,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12314,14 +12304,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>44467</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,7 +12324,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12371,14 +12361,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12391,7 +12381,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12418,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45202.7725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12448,7 +12438,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12475,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45125</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12505,7 +12495,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12542,14 +12532,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45594</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12562,7 +12552,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12599,14 +12589,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45243</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12619,7 +12609,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12656,14 +12646,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44804</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12676,7 +12666,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12713,14 +12703,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44858</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12733,7 +12723,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12770,14 +12760,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45330</v>
+        <v>45020</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12790,7 +12780,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12827,14 +12817,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44487</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12847,7 +12837,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12884,14 +12874,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45265</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12903,8 +12893,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12941,14 +12936,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45118</v>
+        <v>45093</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12961,7 +12956,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12998,14 +12993,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45341</v>
+        <v>45562</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13017,8 +13012,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.2</v>
+        <v>7.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13055,14 +13055,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44467</v>
+        <v>45021</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13112,14 +13112,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13169,14 +13169,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>44872.615</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13226,14 +13226,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13283,14 +13283,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13340,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45749</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13359,8 +13359,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13397,14 +13402,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45174</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13417,7 +13422,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13454,14 +13459,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,7 +13479,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13511,14 +13516,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45341</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13531,7 +13536,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.6</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13568,14 +13573,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45174</v>
+        <v>45356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13588,7 +13593,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13625,14 +13630,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45986</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13645,7 +13650,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13682,14 +13687,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45020</v>
+        <v>44721</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13702,7 +13707,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13739,14 +13744,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45075</v>
+        <v>45243</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13759,7 +13764,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13796,14 +13801,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45490</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13816,7 +13821,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13853,14 +13858,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13873,7 +13878,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13910,14 +13915,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13930,7 +13935,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13967,14 +13972,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45614</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13987,7 +13992,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14024,14 +14029,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>44467</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14044,7 +14049,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14081,14 +14086,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>44803</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14101,7 +14106,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14138,14 +14143,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>44446</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14158,7 +14163,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14195,14 +14200,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>45370</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14215,7 +14220,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14252,14 +14257,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44284</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14271,13 +14276,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14314,14 +14314,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45707</v>
+        <v>45489</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14371,14 +14371,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44928</v>
+        <v>44858</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14428,14 +14428,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45485</v>
+        <v>45187.483125</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14485,14 +14485,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14542,14 +14542,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45818</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14599,14 +14599,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14656,14 +14656,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14713,14 +14713,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14770,14 +14770,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14827,14 +14827,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14884,14 +14884,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>8.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14941,14 +14941,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14998,14 +14998,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15055,14 +15055,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15112,14 +15112,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45401</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15169,14 +15169,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15226,14 +15226,14 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62615-2021</t>
+          <t>A 36525-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44503.69758101852</v>
+        <v>44804.54425925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1833,14 +1833,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41125-2021</t>
+          <t>A 53064-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44423.72306712963</v>
+        <v>44467.79491898148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17400-2021</t>
+          <t>A 47858-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44299.31681712963</v>
+        <v>44855.41420138889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 704-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44568.56927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 62615-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44503.69758101852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2061,14 +2061,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 54376-2021</t>
+          <t>A 41125-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44470</v>
+        <v>44423.72306712963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20080-2022</t>
+          <t>A 54376-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44698.27609953703</v>
+        <v>44470</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2175,14 +2175,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 53064-2021</t>
+          <t>A 17400-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44467.79491898148</v>
+        <v>44299.31681712963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2232,14 +2232,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 704-2022</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44568.56927083333</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36525-2022</t>
+          <t>A 28372-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44804.54425925926</v>
+        <v>44747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2346,14 +2346,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47858-2022</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44855.41420138889</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28372-2022</t>
+          <t>A 4298-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44747</v>
+        <v>44588</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2517,14 +2517,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4298-2022</t>
+          <t>A 48480-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44588</v>
+        <v>44858.70835648148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2574,14 +2574,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48480-2022</t>
+          <t>A 54362-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44858.70835648148</v>
+        <v>44470</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2631,14 +2631,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54362-2021</t>
+          <t>A 20080-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44470</v>
+        <v>44698.27609953703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>44850</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2745,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45180</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44850</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2859,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45096</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2916,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45021</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2973,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45330</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3030,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,8 +3049,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3087,14 +3092,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45187.483125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3107,7 +3112,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45187</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3164,7 +3169,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3201,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45330</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3221,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3258,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3278,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3315,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44487</v>
+        <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3335,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.9</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3372,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44487</v>
+        <v>44446</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3392,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3429,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45093</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3449,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3486,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>44866</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3506,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3543,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>44596</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3563,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3600,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3620,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3657,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45265</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3676,8 +3681,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3714,14 +3724,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3771,14 +3781,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45202.7725</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3791,7 +3801,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3828,14 +3838,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>44789</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3848,7 +3858,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3885,14 +3895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45884</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3905,7 +3915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3942,14 +3952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3962,7 +3972,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3999,14 +4009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>45252</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4019,7 +4029,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4056,14 +4066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4076,7 +4086,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4113,14 +4123,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4133,7 +4143,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4170,14 +4180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45187</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4190,7 +4200,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,7 +4244,7 @@
         <v>44889.27608796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4284,14 +4294,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4304,7 +4314,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4341,14 +4351,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45075</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4361,7 +4371,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4398,14 +4408,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45167</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4418,7 +4428,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>7.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4455,14 +4465,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45168</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4475,7 +4485,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4512,14 +4522,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4532,7 +4542,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.9</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4569,14 +4579,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45265</v>
+        <v>44467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4588,13 +4598,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4636,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45281</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4656,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44853</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45562</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4764,8 +4769,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4812,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4832,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4869,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4889,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4926,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45246</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4973,14 +4983,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45028</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +5003,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5040,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45246</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5050,7 +5060,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5087,14 +5097,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44596</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5107,7 +5117,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5154,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45401</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5174,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5211,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45280</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5231,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5268,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5288,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5325,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5345,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5382,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5402,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5439,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5459,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5496,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5516,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5553,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5573,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5610,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45561</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5619,8 +5629,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>8.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5672,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5692,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5729,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5749,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5786,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5806,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5843,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>44252</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5863,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5900,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45707</v>
+        <v>45370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5920,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5957,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44284</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5961,13 +5976,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +6014,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44928</v>
+        <v>45356</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6034,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6071,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44858</v>
+        <v>45168</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6091,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6128,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6137,8 +6147,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6190,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45614</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6210,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6247,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45485</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6267,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6304,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6309,7 +6324,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6361,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45915</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6366,7 +6381,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6403,14 +6418,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>44958</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6423,7 +6438,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6460,14 +6475,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6480,7 +6495,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6517,14 +6532,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45818</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,7 +6552,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6574,14 +6589,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6594,7 +6609,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6631,14 +6646,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6651,7 +6666,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6688,14 +6703,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6708,7 +6723,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6745,14 +6760,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>44487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6765,7 +6780,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6802,14 +6817,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6822,7 +6837,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6859,14 +6874,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45749</v>
+        <v>44803</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6876,11 +6891,6 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -6921,14 +6931,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6941,7 +6951,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.300000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6988,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45237</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +7008,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7045,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7054,8 +7064,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7092,14 +7107,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>44893</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7112,7 +7127,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7149,14 +7164,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45561</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7168,13 +7183,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>8.6</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7221,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45330</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7241,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7278,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45401</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7298,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7335,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7344,13 +7354,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7387,14 +7392,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7407,7 +7412,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7444,14 +7449,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7464,7 +7469,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7501,14 +7506,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7521,7 +7526,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7558,14 +7563,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7578,7 +7583,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7620,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7640,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7677,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7697,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7734,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7754,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7791,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7811,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7848,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7868,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>13.5</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7905,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44866</v>
+        <v>45243</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7925,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.699999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7962,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44958</v>
+        <v>44804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7982,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8014,14 +8019,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>44858</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8034,7 +8039,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8071,14 +8076,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8091,7 +8096,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8128,14 +8133,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8148,7 +8153,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8185,14 +8190,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8205,7 +8210,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8242,14 +8247,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8262,7 +8267,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8299,14 +8304,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8319,7 +8324,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8356,14 +8361,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45265</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8375,13 +8380,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45489</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45749</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8779,8 +8779,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8822,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8842,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8879,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>44721</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8899,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8936,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44789</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8956,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8993,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9013,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9050,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9070,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9107,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45330</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9127,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9164,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9184,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9221,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45118</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9241,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9278,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9298,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9335,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9355,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9392,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45490</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9412,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9449,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45280</v>
+        <v>44872.615</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9469,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9506,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9526,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>8.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9563,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>44858</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9583,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9620,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9640,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>15.2</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9677,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45265</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9691,8 +9696,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9739,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44447</v>
+        <v>45882.638125</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9759,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9793,7 +9803,7 @@
         <v>45881.46743055555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9843,14 +9853,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9863,7 +9873,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9900,14 +9910,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>44447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9920,7 +9930,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9957,14 +9967,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9977,7 +9987,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10014,14 +10024,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45884</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10034,7 +10044,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10071,14 +10081,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10091,7 +10101,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10128,14 +10138,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45237</v>
+        <v>45246</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10148,7 +10158,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10185,14 +10195,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44963</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10205,7 +10215,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10242,14 +10252,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44252</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10262,7 +10272,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10299,14 +10309,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10319,7 +10329,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10356,14 +10366,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45265</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10373,6 +10383,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -10413,14 +10428,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45246</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10433,7 +10448,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10470,14 +10485,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45118</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10490,7 +10505,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10527,14 +10542,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10547,7 +10562,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10584,14 +10599,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45180</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10604,7 +10619,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10641,14 +10656,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45341</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10661,7 +10676,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10698,14 +10713,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10718,7 +10733,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10755,14 +10770,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45096</v>
+        <v>44467</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10775,7 +10790,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10812,14 +10827,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45618</v>
+        <v>45167</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10831,13 +10846,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10874,14 +10884,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10894,7 +10904,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10931,14 +10941,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>44963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10951,7 +10961,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10988,14 +10998,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11008,7 +11018,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11045,14 +11055,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44467</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11102,14 +11112,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11122,7 +11132,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11159,14 +11169,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11179,7 +11189,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11216,14 +11226,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44893</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11236,7 +11246,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11273,14 +11283,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11293,7 +11303,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11330,14 +11340,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11350,7 +11360,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11387,14 +11397,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11407,7 +11417,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11444,14 +11454,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11463,13 +11473,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11506,14 +11511,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11526,7 +11531,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11563,14 +11568,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11583,7 +11588,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11620,14 +11625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11640,7 +11645,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11677,14 +11682,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11697,7 +11702,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11734,14 +11739,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11754,7 +11759,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11791,14 +11796,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11811,7 +11816,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11848,14 +11853,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44804</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11868,7 +11873,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11905,14 +11910,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45174</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11925,7 +11930,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11962,14 +11967,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45075</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11982,7 +11987,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12019,14 +12024,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45281</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12039,7 +12044,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12076,14 +12081,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45939</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12096,7 +12101,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12133,14 +12138,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46000</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12190,14 +12195,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45020</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12210,7 +12215,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>10.6</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12247,14 +12252,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12267,7 +12272,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12304,14 +12309,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44467</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12324,7 +12329,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12361,14 +12366,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45075</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12381,7 +12386,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12418,14 +12423,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12438,7 +12443,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12475,14 +12480,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45125</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12495,7 +12500,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12532,14 +12537,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45594</v>
+        <v>45915</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12552,7 +12557,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12589,14 +12594,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45490</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12609,7 +12614,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12646,14 +12651,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12666,7 +12671,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12703,14 +12708,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12723,7 +12728,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12760,14 +12765,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45020</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12780,7 +12785,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12817,14 +12822,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12837,7 +12842,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12874,14 +12879,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45265</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12893,13 +12898,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12936,14 +12936,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45093</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12993,14 +12993,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45562</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13012,13 +13012,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13055,14 +13050,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45021</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13075,7 +13070,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13112,14 +13107,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13132,7 +13127,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13169,14 +13164,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44872.615</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13189,7 +13184,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13226,14 +13221,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,7 +13241,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13283,14 +13278,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>44284</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13302,8 +13297,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13340,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45749</v>
+        <v>45707</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13359,13 +13359,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13402,14 +13397,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45174</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13422,7 +13417,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13459,14 +13454,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>44928</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13479,7 +13474,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13516,14 +13511,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45341</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13536,7 +13531,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13573,14 +13568,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45356</v>
+        <v>45485</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13593,7 +13588,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13630,14 +13625,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45986</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13650,7 +13645,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13687,14 +13682,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44721</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13707,7 +13702,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13744,14 +13739,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45243</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13764,7 +13759,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.1</v>
+        <v>15.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13801,14 +13796,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45818</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13821,7 +13816,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13858,14 +13853,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13878,7 +13873,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13915,14 +13910,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13935,7 +13930,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13972,14 +13967,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45614</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13992,7 +13987,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14029,14 +14024,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44467</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14049,7 +14044,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14086,14 +14081,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44803</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14106,7 +14101,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14143,14 +14138,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44446</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14163,7 +14158,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14200,14 +14195,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45370</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14220,7 +14215,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14257,14 +14252,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45618</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14276,8 +14271,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14314,14 +14314,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45489</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14371,14 +14371,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44858</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14428,14 +14428,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14485,14 +14485,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14542,14 +14542,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14599,14 +14599,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14656,14 +14656,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14713,14 +14713,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45939</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.3</v>
+        <v>9.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14770,14 +14770,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14827,14 +14827,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14884,14 +14884,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>46000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14941,14 +14941,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14998,14 +14998,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15055,14 +15055,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45252</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>10.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15112,14 +15112,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15169,14 +15169,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45075</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15226,14 +15226,14 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45986</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38355-2023</t>
+          <t>A 38197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45161</v>
+        <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,133 +786,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38355-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45161</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38197-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45882.67037037037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,14 +1486,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50444-2022</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44866.47050925926</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1505,8 +1505,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1543,14 +1548,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 50444-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,13 +1567,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 36525-2022</t>
+          <t>A 62615-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44804.54425925926</v>
+        <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1833,14 +1833,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53064-2021</t>
+          <t>A 41125-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44467.79491898148</v>
+        <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47858-2022</t>
+          <t>A 17400-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44855.41420138889</v>
+        <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 704-2022</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44568.56927083333</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 62615-2021</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44503.69758101852</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2061,14 +2061,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 41125-2021</t>
+          <t>A 54376-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44423.72306712963</v>
+        <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 54376-2021</t>
+          <t>A 20080-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44470</v>
+        <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2175,14 +2175,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 17400-2021</t>
+          <t>A 53064-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44299.31681712963</v>
+        <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2232,14 +2232,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 704-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28372-2022</t>
+          <t>A 36525-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44747</v>
+        <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2346,14 +2346,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 47858-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 4298-2022</t>
+          <t>A 28372-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44588</v>
+        <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2517,14 +2517,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48480-2022</t>
+          <t>A 4298-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44858.70835648148</v>
+        <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2574,14 +2574,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54362-2021</t>
+          <t>A 48480-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44470</v>
+        <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2631,14 +2631,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20080-2022</t>
+          <t>A 54362-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44698.27609953703</v>
+        <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44850</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2745,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45180</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>44850</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2859,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45096</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2916,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45021</v>
+        <v>45330</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2973,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45330</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3030,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45749</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,13 +3049,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3092,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3112,7 +3107,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3149,14 +3144,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45187</v>
+        <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,8 +3163,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45489</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44853</v>
+        <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44446</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45093</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44866</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44596</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45265</v>
+        <v>44858</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3681,13 +3681,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3724,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45818</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3744,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3781,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3801,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3838,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44789</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3858,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3895,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3952,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3972,7 +3967,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4009,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45252</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4029,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4066,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4086,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4123,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4143,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4180,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4200,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4237,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4257,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4294,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45884</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4314,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4351,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45075</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4371,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4408,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4428,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4465,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4485,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4522,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45489</v>
+        <v>45986</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4579,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44467</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4599,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45281</v>
+        <v>45749</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4655,8 +4650,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45562</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4769,13 +4769,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4812,14 +4807,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45561</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4831,8 +4826,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>8.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4869,14 +4869,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45330</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4926,14 +4926,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45246</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4983,14 +4983,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5040,14 +5040,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5059,8 +5059,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5097,14 +5102,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5117,7 +5122,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5154,14 +5159,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45401</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5174,7 +5179,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5211,14 +5216,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45280</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5231,7 +5236,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5268,14 +5273,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5288,7 +5293,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5325,14 +5330,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5345,7 +5350,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5382,14 +5387,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5402,7 +5407,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5439,14 +5444,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5459,7 +5464,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5496,14 +5501,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5516,7 +5521,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5553,14 +5558,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5573,7 +5578,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5610,14 +5615,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45561</v>
+        <v>44866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5629,13 +5634,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5672,14 +5672,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>44958</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5729,14 +5729,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5786,14 +5786,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5843,14 +5843,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44252</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5900,14 +5900,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45370</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5957,14 +5957,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45265</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5976,8 +5976,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6014,14 +6019,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45356</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6034,7 +6039,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6071,14 +6076,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45168</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6091,7 +6096,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6128,14 +6133,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6147,13 +6152,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6190,14 +6190,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45614</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6247,14 +6247,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45489</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6304,14 +6304,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44958</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6475,14 +6475,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45594</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6532,14 +6532,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6589,14 +6589,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6646,14 +6646,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6703,14 +6703,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6760,14 +6760,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44487</v>
+        <v>44789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6817,14 +6817,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6874,14 +6874,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44803</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6931,14 +6931,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6988,14 +6988,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45237</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7045,14 +7045,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7064,13 +7064,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7107,14 +7102,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44893</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7127,7 +7122,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7164,14 +7159,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7184,7 +7179,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7221,14 +7216,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7241,7 +7236,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7278,14 +7273,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45882.638125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7298,7 +7293,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7335,14 +7330,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7355,7 +7350,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7392,14 +7387,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7412,7 +7407,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7449,14 +7444,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7469,7 +7464,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7506,14 +7501,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7526,7 +7521,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7563,14 +7558,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>45118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7583,7 +7578,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7620,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45490</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7640,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7677,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7697,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7734,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7754,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7791,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7811,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7848,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>44447</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7868,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7905,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45243</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7925,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7962,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44804</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7982,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8019,14 +8014,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44858</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8039,7 +8034,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8076,14 +8071,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8096,7 +8091,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8133,14 +8128,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8153,7 +8148,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8190,14 +8185,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8210,7 +8205,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8247,14 +8242,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45125</v>
+        <v>45237</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8267,7 +8262,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8304,14 +8299,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8324,7 +8319,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8361,14 +8356,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>44963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8381,7 +8376,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8413,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>44252</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8433,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8470,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8490,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8527,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8547,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8584,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8646,14 +8641,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45246</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8661,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8698,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8718,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8755,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45749</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8779,13 +8774,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8822,14 +8812,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8842,7 +8832,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8879,14 +8869,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44721</v>
+        <v>45096</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8899,7 +8889,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8936,14 +8926,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8956,7 +8946,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>15.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8993,14 +8983,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>44467</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9013,7 +9003,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9050,14 +9040,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>44893</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9070,7 +9060,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9107,14 +9097,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45330</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9127,7 +9117,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9164,14 +9154,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9184,7 +9174,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9221,14 +9211,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9240,8 +9230,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9278,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9298,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9335,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45028</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9355,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9392,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9412,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9449,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44872.615</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9469,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9506,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44487</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9526,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9563,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44858</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9583,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9620,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45618</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9639,8 +9634,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9677,14 +9677,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45265</v>
+        <v>44804</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9696,13 +9696,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9739,14 +9734,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9759,7 +9754,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9796,14 +9791,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45075</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9816,7 +9811,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9853,14 +9848,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45281</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9873,7 +9868,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9910,14 +9905,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44447</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9930,7 +9925,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9967,14 +9962,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9987,7 +9982,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10024,14 +10019,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45884</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10044,7 +10039,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10081,14 +10076,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10101,7 +10096,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10138,14 +10133,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45246</v>
+        <v>44467</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10158,7 +10153,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10195,14 +10190,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>45202.7725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10215,7 +10210,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10252,14 +10247,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45125</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10272,7 +10267,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10309,14 +10304,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10329,7 +10324,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10366,14 +10361,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45265</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10385,13 +10380,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10428,14 +10418,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10448,7 +10438,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10485,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45118</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10505,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10542,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44467</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10562,7 +10552,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10599,14 +10589,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45180</v>
+        <v>45020</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10619,7 +10609,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10656,14 +10646,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45341</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10676,7 +10666,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10713,14 +10703,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45265</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10732,8 +10722,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10770,14 +10765,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44467</v>
+        <v>45093</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10790,7 +10785,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10827,14 +10822,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45167</v>
+        <v>45562</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10846,8 +10841,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10884,14 +10884,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45021</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10941,14 +10941,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44963</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10998,14 +10998,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11055,14 +11055,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>44872.615</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11112,14 +11112,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11169,14 +11169,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45749</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11188,8 +11188,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11226,14 +11231,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11246,7 +11251,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11283,14 +11288,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45174</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11303,7 +11308,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11340,14 +11345,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11360,7 +11365,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11397,14 +11402,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45939</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11417,7 +11422,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.1</v>
+        <v>9.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11454,14 +11459,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45341</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11474,7 +11479,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11511,14 +11516,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>46000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11531,7 +11536,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11568,14 +11573,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45356</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11588,7 +11593,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11625,14 +11630,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11645,7 +11650,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>10.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11682,14 +11687,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11702,7 +11707,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11739,14 +11744,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11759,7 +11764,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11796,14 +11801,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>44721</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11816,7 +11821,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11853,14 +11858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45243</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11873,7 +11878,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11910,14 +11915,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45174</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11930,7 +11935,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11967,14 +11972,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11987,7 +11992,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12024,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12044,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12081,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12101,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12138,14 +12143,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12158,7 +12163,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12195,14 +12200,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45020</v>
+        <v>45614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12215,7 +12220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12252,14 +12257,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>44467</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12272,7 +12277,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12309,14 +12314,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>44803</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12329,7 +12334,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12366,14 +12371,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45075</v>
+        <v>44446</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12386,7 +12391,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12423,14 +12428,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45370</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12443,7 +12448,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12480,14 +12485,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12500,7 +12505,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12537,14 +12542,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45915</v>
+        <v>45489</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12557,7 +12562,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12594,14 +12599,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45490</v>
+        <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12614,7 +12619,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12651,14 +12656,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45187.483125</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12671,7 +12676,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12708,14 +12713,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12728,7 +12733,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12765,14 +12770,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12785,7 +12790,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12822,14 +12827,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12879,14 +12884,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12899,7 +12904,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12936,14 +12941,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12956,7 +12961,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12993,14 +12998,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13013,7 +13018,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13050,14 +13055,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13070,7 +13075,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13107,14 +13112,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13127,7 +13132,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13164,14 +13169,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13184,7 +13189,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13221,14 +13226,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13241,7 +13246,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13278,14 +13283,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44284</v>
+        <v>45252</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13297,13 +13302,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13340,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45707</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13397,14 +13397,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>13.5</v>
+        <v>2.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13454,14 +13454,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44928</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13511,14 +13511,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13568,14 +13568,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45485</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13625,14 +13625,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13682,14 +13682,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13739,14 +13739,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>15.2</v>
+        <v>8.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13796,14 +13796,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45818</v>
+        <v>44487</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13853,14 +13853,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13967,14 +13967,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14024,14 +14024,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14081,14 +14081,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14138,14 +14138,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14195,14 +14195,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14252,14 +14252,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45618</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14269,11 +14269,6 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -14314,14 +14309,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14334,7 +14329,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14371,14 +14366,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14391,7 +14386,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>7.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14428,14 +14423,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14448,7 +14443,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14485,14 +14480,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14505,7 +14500,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14542,14 +14537,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45028</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14562,7 +14557,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14599,14 +14594,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>44596</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14619,7 +14614,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14656,14 +14651,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14676,7 +14671,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14713,14 +14708,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45939</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14733,7 +14728,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>9.9</v>
+        <v>1.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14770,14 +14765,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14790,7 +14785,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14827,14 +14822,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14847,7 +14842,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14884,14 +14879,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46000</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14904,7 +14899,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14941,14 +14936,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14961,7 +14956,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14998,14 +14993,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45707</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15018,7 +15013,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15055,14 +15050,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>44284</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15074,8 +15069,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>10.6</v>
+        <v>3.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15112,14 +15112,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>44928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15169,14 +15169,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15226,14 +15226,14 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45986</v>
+        <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1548,14 +1548,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 50444-2022</t>
+          <t>A 17396-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44866.47050925926</v>
+        <v>44299.30657407407</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1605,14 +1605,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 17396-2021</t>
+          <t>A 50444-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44299.30657407407</v>
+        <v>44866.47050925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1662,14 +1662,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 53196-2021</t>
+          <t>A 24813-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44468</v>
+        <v>44340.67737268518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1719,14 +1719,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24813-2021</t>
+          <t>A 53196-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44340.67737268518</v>
+        <v>44468</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45180</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44850</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45439.56258101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45330</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44918.57599537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45167</v>
+        <v>45265</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3106,8 +3106,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45265</v>
+        <v>45167</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,13 +3168,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44455.51825231482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44858</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45818</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45884</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45818</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>44858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45884</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45401</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45986</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45749</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4650,13 +4650,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45561</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4826,13 +4821,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>8.6</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4869,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45330</v>
+        <v>45401</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4889,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4926,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4946,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4983,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5003,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5040,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5059,13 +5049,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5102,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5122,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5159,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5179,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5216,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5236,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5273,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5293,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5330,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5350,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5387,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45749</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5406,8 +5391,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5444,14 +5434,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5464,7 +5454,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5501,14 +5491,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5521,7 +5511,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5558,14 +5548,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5578,7 +5568,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5615,14 +5605,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44866</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5635,7 +5625,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5672,14 +5662,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44958</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5692,7 +5682,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5729,14 +5719,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5749,7 +5739,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5786,14 +5776,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5806,7 +5796,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5843,14 +5833,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5863,7 +5853,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5900,14 +5890,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45561</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5919,8 +5909,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>8.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5957,14 +5952,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45265</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5976,13 +5971,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6019,14 +6009,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6039,7 +6029,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6076,14 +6066,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45330</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6096,7 +6086,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6133,14 +6123,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6153,7 +6143,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6190,14 +6180,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6209,8 +6199,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6247,14 +6242,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45489</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6267,7 +6262,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6304,14 +6299,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6324,7 +6319,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6361,14 +6356,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6381,7 +6376,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6418,14 +6413,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6438,7 +6433,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6475,14 +6470,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6495,7 +6490,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6532,14 +6527,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6552,7 +6547,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6589,14 +6584,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6609,7 +6604,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6646,14 +6641,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6666,7 +6661,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6703,14 +6698,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6723,7 +6718,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6760,14 +6755,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44789</v>
+        <v>44866</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6780,7 +6775,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6817,14 +6812,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6837,7 +6832,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6874,14 +6869,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>44958</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6894,7 +6889,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6931,14 +6926,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6951,7 +6946,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6988,14 +6983,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7008,7 +7003,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7045,14 +7040,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7065,7 +7060,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7102,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45265</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7121,8 +7116,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7159,14 +7159,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7216,14 +7216,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7273,14 +7273,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7330,14 +7330,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45915</v>
+        <v>45489</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7387,14 +7387,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7444,14 +7444,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7501,14 +7501,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7558,14 +7558,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45118</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>15.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45490</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45280</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44447</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45882.638125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8014,14 +8014,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8071,14 +8071,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>44789</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8128,14 +8128,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8185,14 +8185,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>13.5</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8242,14 +8242,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45237</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8299,14 +8299,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8356,14 +8356,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44963</v>
+        <v>45618</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8375,8 +8375,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8413,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44252</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8433,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8470,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45118</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8490,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8527,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8547,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8584,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8604,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8641,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45246</v>
+        <v>45280</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8661,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8698,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8718,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8755,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8775,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8812,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8832,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8869,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45096</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8889,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8926,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45986</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8946,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>15.2</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8983,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44467</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9003,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9040,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44893</v>
+        <v>44447</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9060,7 +9065,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9097,14 +9102,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9117,7 +9122,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9154,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9174,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9211,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45237</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9230,13 +9235,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>44963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>44252</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45246</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45618</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9634,13 +9634,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9677,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44804</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9697,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9734,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9754,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9791,14 +9786,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45075</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9811,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9848,14 +9843,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45281</v>
+        <v>45096</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9868,7 +9863,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9905,14 +9900,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9925,7 +9920,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9962,14 +9957,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45939</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9982,7 +9977,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10019,14 +10014,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>44467</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10039,7 +10034,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10076,14 +10071,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>46000</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10096,7 +10091,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10133,14 +10128,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44467</v>
+        <v>44893</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10153,7 +10148,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10190,14 +10185,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45202.7725</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10210,7 +10205,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10247,14 +10242,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45125</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10267,7 +10262,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10304,14 +10299,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45594</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10323,8 +10318,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10361,14 +10361,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10418,14 +10418,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10589,14 +10589,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45020</v>
+        <v>44804</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10646,14 +10646,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45075</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10703,14 +10703,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45265</v>
+        <v>45281</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10722,13 +10722,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10765,14 +10760,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45093</v>
+        <v>44467</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10785,7 +10780,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10822,14 +10817,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45562</v>
+        <v>45202.7725</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10841,13 +10836,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10884,14 +10874,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45021</v>
+        <v>45125</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10904,7 +10894,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10941,14 +10931,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45594</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10961,7 +10951,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10998,14 +10988,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11018,7 +11008,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11055,14 +11045,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44872.615</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11075,7 +11065,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11112,14 +11102,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11132,7 +11122,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11169,14 +11159,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45749</v>
+        <v>45020</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11188,13 +11178,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11231,14 +11216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11251,7 +11236,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11288,14 +11273,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45174</v>
+        <v>45265</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11307,8 +11292,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11345,14 +11335,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45093</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11365,7 +11355,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11402,14 +11392,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45939</v>
+        <v>45562</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11421,8 +11411,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11459,14 +11454,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45341</v>
+        <v>45021</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11479,7 +11474,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11516,14 +11511,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46000</v>
+        <v>44872.615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11536,7 +11531,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11573,14 +11568,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45356</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11593,7 +11588,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11630,14 +11625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11649,8 +11644,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11687,14 +11687,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45174</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11744,14 +11744,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11801,14 +11801,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44721</v>
+        <v>45341</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45243</v>
+        <v>45356</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11915,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>44721</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45243</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>45538.6312962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>44467</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>44803</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44446</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>45370</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45448.5952662037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45489</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45187.483125</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45700.60572916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45600.63541666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45187.53253472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45187.53527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45581.59896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44855.40680555555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45049.48990740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44893.60265046296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45636.58703703704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45187.53984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45252</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45636.59827546297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45075</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44593.65674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45770.30033564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45544.5402662037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45544.54657407408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45700.6591087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44487</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44732.56100694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45700.62923611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45322.93523148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45391.76952546297</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45187.48538194445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>44889.27608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45012.40119212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45447.89599537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45748.40296296297</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>44721.63243055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45028</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44596</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45777.73329861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45777.73553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>45777.60085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>45777.60643518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>45777.72783564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45777.73825231481</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>45707</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44284</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45422.50045138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 55069-2021</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44474.63831018518</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,8 +1448,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1486,14 +1491,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 55069-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44474.63831018518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1505,13 +1510,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1662,14 +1662,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24813-2021</t>
+          <t>A 53196-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44340.67737268518</v>
+        <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1719,14 +1719,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53196-2021</t>
+          <t>A 24813-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44468</v>
+        <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45180</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44850</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45439.56258101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45330</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44918.57599537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3087,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45265</v>
+        <v>44928</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3106,13 +3106,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3149,14 +3144,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45167</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3169,7 +3164,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3201,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44853</v>
+        <v>45167</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3221,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3258,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3315,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45246</v>
+        <v>45265</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3339,8 +3334,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45485</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>44853</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45246</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45884</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3776,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45884</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45818</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44858</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45818</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>45897.56592592593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4631,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45401</v>
+        <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4973,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5087,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45749</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5391,13 +5391,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5434,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5454,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5491,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45401</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5511,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5548,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45915</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5568,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5605,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5625,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5662,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5682,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5719,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45915</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5739,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5776,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5796,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5853,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5890,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45561</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5909,13 +5904,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5952,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45749</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5971,8 +5961,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6009,14 +6004,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6029,7 +6024,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6066,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45330</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6086,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6123,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6143,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6180,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6199,13 +6194,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6242,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6262,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6299,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6319,7 +6309,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6356,14 +6346,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45561</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6375,8 +6365,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>8.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6413,14 +6408,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6433,7 +6428,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>13.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6470,14 +6465,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6490,7 +6485,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6527,14 +6522,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6547,7 +6542,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6584,14 +6579,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45330</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6604,7 +6599,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.5</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6641,14 +6636,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6661,7 +6656,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6698,14 +6693,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6718,7 +6713,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6755,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44866</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6775,7 +6770,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>8.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6812,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6831,8 +6826,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6869,14 +6869,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44958</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6926,14 +6926,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6983,14 +6983,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7097,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45265</v>
+        <v>44866</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7116,13 +7116,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7159,14 +7154,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>44958</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7179,7 +7174,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7216,14 +7211,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7236,7 +7231,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7273,14 +7268,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7293,7 +7288,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7330,14 +7325,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45489</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7350,7 +7345,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>15.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7387,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7407,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7444,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7464,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7501,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7520,8 +7515,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7558,14 +7558,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>15.2</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45489</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>45095.5359375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44789</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8128,14 +8128,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8185,14 +8185,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8242,14 +8242,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8299,14 +8299,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>45618</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8418,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45118</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45490</v>
+        <v>45882.638125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45280</v>
+        <v>45118</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45280</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45986</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>44447</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45644.68480324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9159,14 +9159,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45237</v>
+        <v>45939</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>9.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9273,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44963</v>
+        <v>45237</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44252</v>
+        <v>44963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>46000</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9444,14 +9444,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>44252</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9501,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45246</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9558,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>10.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9615,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45246</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9843,14 +9843,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45096</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9900,14 +9900,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9957,14 +9957,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45939</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10014,14 +10014,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44467</v>
+        <v>45096</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10071,14 +10071,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46000</v>
+        <v>44467</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10128,14 +10128,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44893</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10185,14 +10185,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10242,14 +10242,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>44893</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10299,14 +10299,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10318,13 +10318,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10361,14 +10356,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10381,7 +10376,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10418,14 +10413,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10437,8 +10432,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10589,14 +10589,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44804</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10646,14 +10646,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45075</v>
+        <v>45986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10703,14 +10703,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45281</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10760,14 +10760,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44467</v>
+        <v>44804</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10817,14 +10817,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45075</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10874,14 +10874,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45125</v>
+        <v>45281</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10931,14 +10931,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45594</v>
+        <v>44467</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10988,14 +10988,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45202.7725</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11045,14 +11045,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45125</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11102,14 +11102,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11159,14 +11159,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45020</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11216,14 +11216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11273,14 +11273,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45265</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11292,13 +11292,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11335,14 +11330,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45093</v>
+        <v>45020</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11355,7 +11350,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11392,14 +11387,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45562</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11411,13 +11406,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11454,14 +11444,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45021</v>
+        <v>45265</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11473,8 +11463,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11511,14 +11506,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44872.615</v>
+        <v>45093</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11531,7 +11526,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11568,14 +11563,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45562</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11587,8 +11582,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11625,14 +11625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45749</v>
+        <v>45021</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11644,13 +11644,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11687,14 +11682,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45174</v>
+        <v>44872.615</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11707,7 +11702,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11744,14 +11739,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11764,7 +11759,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11801,14 +11796,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45341</v>
+        <v>45749</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11820,8 +11815,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45356</v>
+        <v>45174</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11915,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44721</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45243</v>
+        <v>45341</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45356</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>44721</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45614</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44467</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44803</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44446</v>
+        <v>45614</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45370</v>
+        <v>44467</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>44803</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12542,14 +12542,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45489</v>
+        <v>44446</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12599,14 +12599,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44858</v>
+        <v>45370</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12656,14 +12656,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12713,14 +12713,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45489</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12770,14 +12770,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12827,14 +12827,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45187.483125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12884,14 +12884,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12941,14 +12941,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12998,14 +12998,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13055,14 +13055,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13112,14 +13112,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13169,14 +13169,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13226,14 +13226,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13283,14 +13283,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45252</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13340,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13397,14 +13397,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45075</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13454,14 +13454,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45252</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13511,14 +13511,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13568,14 +13568,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45075</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13625,14 +13625,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13682,14 +13682,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13739,14 +13739,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44487</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>8.9</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13796,14 +13796,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44487</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13853,14 +13853,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>44487</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13967,14 +13967,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>44487</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14024,14 +14024,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14081,14 +14081,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14138,14 +14138,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45187</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14195,14 +14195,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14252,14 +14252,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14309,14 +14309,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45168</v>
+        <v>45187</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14366,14 +14366,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.9</v>
+        <v>1.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14423,14 +14423,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14480,14 +14480,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45168</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14537,14 +14537,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45028</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14594,14 +14594,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44596</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14651,14 +14651,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14708,14 +14708,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45028</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14765,14 +14765,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>44596</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14822,14 +14822,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14879,14 +14879,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14936,14 +14936,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14993,14 +14993,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45707</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15050,14 +15050,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44284</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15069,13 +15069,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15112,14 +15107,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44928</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15132,7 +15127,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15169,14 +15164,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45707</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15189,7 +15184,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15226,14 +15221,14 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45485</v>
+        <v>44284</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15245,8 +15240,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z256"/>
+  <dimension ref="A1:Z259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 55069-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,13 +1448,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1491,14 +1486,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55069-2021</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44474.63831018518</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1510,8 +1505,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1548,14 +1548,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17396-2021</t>
+          <t>A 50444-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44299.30657407407</v>
+        <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1605,14 +1605,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50444-2022</t>
+          <t>A 17396-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44866.47050925926</v>
+        <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45187.483125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2745,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45180</v>
+        <v>45187</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44850</v>
+        <v>45749</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,8 +2821,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2864,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2884,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2921,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45330</v>
+        <v>45202.7725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2941,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2978,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45490</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2998,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3035,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3050,7 +3055,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3087,14 +3092,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44928</v>
+        <v>44789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3107,7 +3112,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3164,7 +3169,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3201,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45167</v>
+        <v>45252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3221,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3258,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3278,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3315,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45265</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3334,13 +3339,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45485</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44853</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45246</v>
+        <v>44284</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3681,8 +3681,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3724,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45884</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3744,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3781,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3801,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,7 +3845,7 @@
         <v>45743.87862268519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3890,14 +3895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45707</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>44928</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3967,7 +3972,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4004,14 +4009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45485</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4024,7 +4029,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4061,14 +4066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45075</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4081,7 +4086,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4118,14 +4123,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4138,7 +4143,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4175,14 +4180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45818</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4195,7 +4200,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4232,14 +4237,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4252,7 +4257,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4289,14 +4294,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4309,7 +4314,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4346,14 +4351,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>44467</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,7 +4371,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4403,14 +4408,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45281</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4423,7 +4428,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4460,14 +4465,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4480,7 +4485,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4517,14 +4522,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4537,7 +4542,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4574,14 +4579,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4594,7 +4599,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4631,14 +4636,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4651,7 +4656,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4688,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>44850</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4708,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4745,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4765,7 +4770,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4802,14 +4807,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4822,7 +4827,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>15.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4859,14 +4864,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44858</v>
+        <v>45096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4879,7 +4884,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4916,14 +4921,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45021</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4936,7 +4941,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4973,14 +4978,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45330</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4993,7 +4998,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5030,14 +5035,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5050,7 +5055,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5087,14 +5092,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5107,7 +5112,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5144,14 +5149,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5164,7 +5169,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>6.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5201,14 +5206,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45489</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5221,7 +5226,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5258,14 +5263,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5278,7 +5283,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5315,14 +5320,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5335,7 +5340,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5372,14 +5377,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5392,7 +5397,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5429,14 +5434,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5449,7 +5454,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5486,14 +5491,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45401</v>
+        <v>44866</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5506,7 +5511,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5543,14 +5548,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>44596</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5563,7 +5568,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5600,14 +5605,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5620,7 +5625,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5657,14 +5662,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5677,7 +5682,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5714,14 +5719,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45915</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5734,7 +5739,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5771,14 +5776,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5791,7 +5796,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,14 +5833,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5848,7 +5853,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5885,14 +5890,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5905,7 +5910,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5942,14 +5947,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45749</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5961,13 +5966,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +6004,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6175,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6232,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45915</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6289,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45618</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6308,8 +6308,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6346,14 +6351,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45561</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6365,13 +6370,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>8.6</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6408,14 +6408,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>13.5</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6465,14 +6465,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6522,14 +6522,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45401</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6579,14 +6579,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45330</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6636,14 +6636,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6693,14 +6693,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6750,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6807,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6826,13 +6826,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6869,14 +6864,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6889,7 +6884,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6926,14 +6921,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6946,7 +6941,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6983,14 +6978,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7003,7 +6998,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7040,14 +7035,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7060,7 +7055,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7097,14 +7092,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44866</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7117,7 +7112,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.699999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7154,14 +7149,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44958</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7174,7 +7169,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7211,14 +7206,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7231,7 +7226,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7268,14 +7263,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45489</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7288,7 +7283,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7325,14 +7320,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45562</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7344,8 +7339,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>15.2</v>
+        <v>7.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45265</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7515,13 +7515,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7558,14 +7553,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7578,7 +7573,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7610,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45489</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7630,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7667,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7687,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7724,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7749,7 +7744,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7781,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7801,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7838,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7858,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7895,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7915,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7952,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7972,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8014,14 +8009,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>44252</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8034,7 +8029,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8071,14 +8066,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44789</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8091,7 +8086,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8128,14 +8123,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45356</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8148,7 +8143,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8185,14 +8180,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8205,7 +8200,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8242,14 +8237,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8262,7 +8257,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8299,14 +8294,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8319,7 +8314,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8356,14 +8351,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45618</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8375,13 +8370,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45614</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45882.638125</v>
+        <v>44958</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8542,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8579,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8599,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8636,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45118</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8656,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8693,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45490</v>
+        <v>45939</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8713,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>9.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8750,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>44487</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8770,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8807,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45280</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8827,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8864,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8884,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8921,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +8998,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44447</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9122,7 +9112,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9159,14 +9149,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9179,7 +9169,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9216,14 +9206,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45939</v>
+        <v>45125</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9236,7 +9226,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9.9</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9273,14 +9263,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45237</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9293,7 +9283,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9330,14 +9320,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44963</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9350,7 +9340,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9387,14 +9377,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46000</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9407,7 +9397,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9444,14 +9434,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44252</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9464,7 +9454,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9501,14 +9491,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45882.638125</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9521,7 +9511,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9558,14 +9548,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9578,7 +9568,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>10.6</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9615,14 +9605,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9635,7 +9625,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9672,14 +9662,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45246</v>
+        <v>45884</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9692,7 +9682,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9729,14 +9719,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9749,7 +9739,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9786,14 +9776,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>46000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9806,7 +9796,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9843,14 +9833,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9863,7 +9853,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9900,14 +9890,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9920,7 +9910,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9957,14 +9947,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9977,7 +9967,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10014,14 +10004,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45096</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10034,7 +10024,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10071,14 +10061,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44467</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10091,7 +10081,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10128,14 +10118,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10148,7 +10138,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10185,14 +10175,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10205,7 +10195,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.8</v>
+        <v>10.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10242,14 +10232,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44893</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10262,7 +10252,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10299,14 +10289,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10319,7 +10309,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10356,14 +10346,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45028</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10376,7 +10366,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10413,14 +10403,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>44872.615</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10432,13 +10422,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10460,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>44447</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10480,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10517,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10552,7 +10537,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10589,14 +10574,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45246</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10609,7 +10594,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10646,14 +10631,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45986</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10666,7 +10651,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10703,14 +10688,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10723,7 +10708,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10760,14 +10745,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44804</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10780,7 +10765,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10817,14 +10802,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45075</v>
+        <v>44467</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10837,7 +10822,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10874,14 +10859,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45281</v>
+        <v>45180</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10894,7 +10879,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10931,14 +10916,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44467</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10951,7 +10936,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10988,14 +10973,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11008,7 +10993,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11045,14 +11030,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45125</v>
+        <v>44853</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11065,7 +11050,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11102,14 +11087,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45594</v>
+        <v>44446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11122,7 +11107,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11159,14 +11144,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45093</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11179,7 +11164,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11216,14 +11201,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45265</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11235,8 +11220,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11273,14 +11263,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11293,7 +11283,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11330,14 +11320,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45020</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11350,7 +11340,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11387,14 +11377,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11407,7 +11397,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11444,14 +11434,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45265</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11463,13 +11453,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11506,14 +11491,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45093</v>
+        <v>45986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11526,7 +11511,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11563,14 +11548,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45562</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11582,13 +11567,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11625,14 +11605,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 9627-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45021</v>
+        <v>46070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11644,8 +11624,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11682,14 +11667,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44872.615</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11702,7 +11687,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11739,14 +11724,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11759,7 +11744,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11796,14 +11781,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 9624-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45749</v>
+        <v>46070</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11821,7 +11806,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11843,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 9641-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45174</v>
+        <v>46070</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11877,8 +11862,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11905,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11925,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11962,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45341</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11992,7 +11982,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12019,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45356</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12039,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12076,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44721</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12096,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12133,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45243</v>
+        <v>45561</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12162,8 +12152,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12195,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12220,7 +12215,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12257,14 +12252,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45370</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12277,7 +12272,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12314,14 +12309,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,7 +12329,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12371,14 +12366,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45614</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12390,8 +12385,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44467</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44803</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12542,14 +12542,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44446</v>
+        <v>45594</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12599,14 +12599,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45370</v>
+        <v>44803</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12656,14 +12656,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12675,8 +12675,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12713,14 +12718,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45489</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12733,7 +12738,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12770,14 +12775,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44858</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12790,7 +12795,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12827,14 +12832,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12847,7 +12852,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12891,7 +12896,7 @@
         <v>45700.60572916667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12941,14 +12946,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12961,7 +12966,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12998,14 +13003,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13018,7 +13023,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13055,14 +13060,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13075,7 +13080,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13112,14 +13117,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45749</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13131,8 +13136,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13169,14 +13179,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>44721</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13189,7 +13199,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13226,14 +13236,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>44858</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,7 +13256,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13283,14 +13293,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45265</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13302,8 +13312,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13340,14 +13355,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13360,7 +13375,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13397,14 +13412,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13416,8 +13431,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13454,14 +13474,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45252</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,7 +13494,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13511,14 +13531,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45167</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13531,7 +13551,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13568,14 +13588,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45075</v>
+        <v>44963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13588,7 +13608,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13632,7 +13652,7 @@
         <v>44593.65674768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13682,14 +13702,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13702,7 +13722,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13739,14 +13759,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45280</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13759,7 +13779,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13796,14 +13816,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45237</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13816,7 +13836,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13853,14 +13873,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>44893</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13873,7 +13893,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13910,14 +13930,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44487</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13930,7 +13950,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>8.9</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13967,14 +13987,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44487</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13987,7 +14007,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14024,14 +14044,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14044,7 +14064,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14081,14 +14101,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14101,7 +14121,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14138,14 +14158,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14158,7 +14178,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14195,14 +14215,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14215,7 +14235,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14252,14 +14272,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45243</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14272,7 +14292,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14309,14 +14329,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45187</v>
+        <v>44804</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14329,7 +14349,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14366,14 +14386,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>44858</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14386,7 +14406,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14423,14 +14443,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>45330</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14443,7 +14463,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14480,14 +14500,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45168</v>
+        <v>44487</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14500,7 +14520,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14537,14 +14557,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14557,7 +14577,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>7.9</v>
+        <v>1.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14594,14 +14614,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45118</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14614,7 +14634,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14651,14 +14671,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45341</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14671,7 +14691,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14708,14 +14728,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45028</v>
+        <v>44467</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14728,7 +14748,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14765,14 +14785,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44596</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14785,7 +14805,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14822,14 +14842,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14842,7 +14862,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14879,14 +14899,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14899,7 +14919,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14936,14 +14956,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14956,7 +14976,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14993,14 +15013,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15013,7 +15033,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15050,14 +15070,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15070,7 +15090,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15107,14 +15127,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15127,7 +15147,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15164,14 +15184,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45707</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15184,7 +15204,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.8</v>
+        <v>7.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15218,17 +15238,17 @@
       </c>
       <c r="R255" s="2" t="inlineStr"/>
     </row>
-    <row r="256">
+    <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44284</v>
+        <v>45174</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15240,13 +15260,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15279,6 +15294,177 @@
         <v>0</v>
       </c>
       <c r="R256" s="2" t="inlineStr"/>
+    </row>
+    <row r="257" ht="15" customHeight="1">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>A 62045-2022</t>
+        </is>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>44918.56108796296</v>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" s="2" t="inlineStr"/>
+    </row>
+    <row r="258" ht="15" customHeight="1">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>A 15434-2023</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" s="2" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>A 23259-2023</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2745,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45187</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45749</v>
+        <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,13 +2821,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2864,14 +2859,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2884,7 +2879,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2921,14 +2916,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45180</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2941,7 +2936,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2978,14 +2973,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45490</v>
+        <v>44850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2998,7 +2993,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3035,14 +3030,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3055,7 +3050,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3092,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44789</v>
+        <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3112,7 +3107,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3149,14 +3144,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,8 +3163,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45252</v>
+        <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3320,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>44858</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44284</v>
+        <v>45749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3724,14 +3724,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3781,14 +3781,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3838,14 +3838,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>45561</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3857,8 +3857,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3895,14 +3900,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45707</v>
+        <v>45884</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,7 +3920,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3952,14 +3957,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44928</v>
+        <v>45330</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3972,7 +3977,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4009,14 +4014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45485</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4029,7 +4034,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4066,14 +4071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45075</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4086,7 +4091,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4123,14 +4128,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4142,8 +4147,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4180,14 +4190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4200,7 +4210,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4237,14 +4247,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4257,7 +4267,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4294,14 +4304,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4314,7 +4324,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4351,14 +4361,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44467</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4371,7 +4381,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4408,14 +4418,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45281</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4428,7 +4438,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4465,14 +4475,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4485,7 +4495,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4522,14 +4532,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4542,7 +4552,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4579,14 +4589,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4599,7 +4609,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4646,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4656,7 +4666,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4703,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44850</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4723,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.9</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4760,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4770,7 +4780,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4807,14 +4817,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>44866</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4827,7 +4837,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>15.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4864,14 +4874,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45096</v>
+        <v>44958</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4884,7 +4894,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4921,14 +4931,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45021</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4941,7 +4951,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4978,14 +4988,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45330</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4998,7 +5008,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5035,14 +5045,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45818</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5055,7 +5065,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5092,14 +5102,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5112,7 +5122,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5149,14 +5159,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5169,7 +5179,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5206,14 +5216,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45489</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5226,7 +5236,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5263,14 +5273,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45265</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5282,8 +5292,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5320,14 +5335,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5340,7 +5355,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5377,14 +5392,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5397,7 +5412,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5434,14 +5449,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5454,7 +5469,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5491,14 +5506,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44866</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5511,7 +5526,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5548,14 +5563,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44596</v>
+        <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5568,7 +5583,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5605,14 +5620,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5625,7 +5640,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5662,14 +5677,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5682,7 +5697,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5719,14 +5734,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5739,7 +5754,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5776,14 +5791,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5796,7 +5811,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5848,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5853,7 +5868,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5890,14 +5905,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5910,7 +5925,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5947,14 +5962,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5967,7 +5982,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +6019,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6039,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6076,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6096,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6133,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>44789</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6138,7 +6153,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6175,14 +6190,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6195,7 +6210,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6232,14 +6247,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45915</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6252,7 +6267,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6289,14 +6304,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45618</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6308,13 +6323,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6351,14 +6361,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6371,7 +6381,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6408,14 +6418,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6428,7 +6438,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6465,14 +6475,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6485,7 +6495,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6522,14 +6532,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45401</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6542,7 +6552,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>13.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6579,14 +6589,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6599,7 +6609,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6636,14 +6646,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6693,14 +6703,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6713,7 +6723,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6750,14 +6760,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6770,7 +6780,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6807,14 +6817,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6827,7 +6837,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6864,14 +6874,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6884,7 +6894,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6921,14 +6931,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45118</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6941,7 +6951,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6978,14 +6988,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6998,7 +7008,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7035,14 +7045,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45490</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7055,7 +7065,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7092,14 +7102,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7112,7 +7122,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>13.5</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7149,14 +7159,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45280</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7169,7 +7179,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7206,14 +7216,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45882.638125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7226,7 +7236,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7263,14 +7273,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45489</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7283,7 +7293,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7320,14 +7330,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45562</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7339,13 +7349,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7382,14 +7387,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7402,7 +7407,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7439,14 +7444,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7459,7 +7464,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7496,14 +7501,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7516,7 +7521,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7553,14 +7558,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7573,7 +7578,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7610,14 +7615,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7630,7 +7635,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7667,14 +7672,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45237</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7687,7 +7692,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7724,14 +7729,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>44963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7744,7 +7749,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7781,14 +7786,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>44252</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7801,7 +7806,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7838,14 +7843,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7858,7 +7863,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7895,14 +7900,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7915,7 +7920,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7952,14 +7957,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45246</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7972,7 +7977,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8009,14 +8014,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44252</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8029,7 +8034,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8066,14 +8071,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8086,7 +8091,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8123,14 +8128,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45356</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8143,7 +8148,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8180,14 +8185,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8200,7 +8205,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8237,14 +8242,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8257,7 +8262,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8294,14 +8299,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45096</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8314,7 +8319,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8351,14 +8356,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45618</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8370,8 +8375,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8408,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8428,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8465,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45614</v>
+        <v>44467</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8485,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8522,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44958</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8542,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8579,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8599,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8636,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>44893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8656,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8693,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45939</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8713,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>9.9</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8750,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44487</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8770,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8807,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8827,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8864,14 +8874,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8884,7 +8894,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8940,8 +8950,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8978,14 +8993,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8998,7 +9013,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9035,14 +9050,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9055,7 +9070,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9092,14 +9107,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9112,7 +9127,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9149,14 +9164,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9169,7 +9184,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9206,14 +9221,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45125</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9226,7 +9241,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9263,14 +9278,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9283,7 +9298,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9320,14 +9335,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9340,7 +9355,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9377,14 +9392,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>44804</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9397,7 +9412,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9434,14 +9449,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45075</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9454,7 +9469,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9491,14 +9506,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9511,7 +9526,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9548,14 +9563,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45281</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9568,7 +9583,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9605,14 +9620,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45939</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9625,7 +9640,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>9.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9662,14 +9677,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45884</v>
+        <v>46000</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9682,7 +9697,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9719,14 +9734,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9739,7 +9754,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>10.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9776,14 +9791,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46000</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9796,7 +9811,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9833,14 +9848,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9853,7 +9868,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9890,14 +9905,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>44467</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9910,7 +9925,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9947,14 +9962,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45202.7725</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9967,7 +9982,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10004,14 +10019,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10024,7 +10039,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10061,14 +10076,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10081,7 +10096,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10118,14 +10133,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10138,7 +10153,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10175,14 +10190,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10195,7 +10210,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.6</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10232,14 +10247,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10252,7 +10267,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10289,14 +10304,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45020</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10309,7 +10324,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10346,14 +10361,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45028</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10366,7 +10381,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10403,14 +10418,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44872.615</v>
+        <v>45265</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10422,8 +10437,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10460,14 +10480,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44447</v>
+        <v>45093</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10480,7 +10500,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10517,14 +10537,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10537,7 +10557,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10574,14 +10594,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45246</v>
+        <v>45562</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10593,8 +10613,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10631,14 +10656,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10651,7 +10676,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10688,14 +10713,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45021</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10708,7 +10733,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10745,14 +10770,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>44872.615</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10765,7 +10790,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10802,14 +10827,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44467</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10822,7 +10847,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10859,14 +10884,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45180</v>
+        <v>45749</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10878,8 +10903,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10916,14 +10946,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45174</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10936,7 +10966,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10973,14 +11003,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10993,7 +11023,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11030,14 +11060,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44853</v>
+        <v>45341</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11050,7 +11080,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11087,14 +11117,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44446</v>
+        <v>45356</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11107,7 +11137,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11144,14 +11174,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45093</v>
+        <v>44721</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11164,7 +11194,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11201,14 +11231,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45265</v>
+        <v>45243</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11220,13 +11250,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11263,14 +11288,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11283,7 +11308,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11320,14 +11345,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11340,7 +11365,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11377,14 +11402,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45986</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11397,7 +11422,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11434,14 +11459,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 9624-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>46070</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11453,8 +11478,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11491,14 +11521,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 9627-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45986</v>
+        <v>46070</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11510,8 +11540,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11548,14 +11583,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11568,7 +11603,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11605,14 +11640,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9627-2026</t>
+          <t>A 9641-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
         <v>46070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11630,7 +11665,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11667,14 +11702,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11687,7 +11722,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11724,14 +11759,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45246</v>
+        <v>44467</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11744,7 +11779,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11781,14 +11816,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 9624-2026</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46070</v>
+        <v>44803</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11800,13 +11835,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11843,14 +11873,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9641-2026</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46070</v>
+        <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11862,13 +11892,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11905,14 +11930,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45370</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11925,7 +11950,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11962,14 +11987,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11982,7 +12007,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12019,14 +12044,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45489</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12039,7 +12064,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12076,14 +12101,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>44858</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12096,7 +12121,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12133,14 +12158,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45561</v>
+        <v>45187.483125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12152,13 +12177,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>8.6</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12195,14 +12215,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12215,7 +12235,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12252,14 +12272,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45370</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12272,7 +12292,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12309,14 +12329,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45168</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12366,14 +12386,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12385,13 +12405,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12443,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12448,7 +12463,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12500,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12505,7 +12520,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12542,14 +12557,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45594</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12562,7 +12577,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12599,14 +12614,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44803</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12619,7 +12634,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12656,14 +12671,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12675,13 +12690,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12718,14 +12728,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12738,7 +12748,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12775,14 +12785,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45252</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12795,7 +12805,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12832,14 +12842,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12852,7 +12862,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12889,14 +12899,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12909,7 +12919,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12946,14 +12956,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12966,7 +12976,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13003,14 +13013,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13023,7 +13033,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13060,14 +13070,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13080,7 +13090,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13117,14 +13127,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45749</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13136,13 +13146,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13179,14 +13184,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44721</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13199,7 +13204,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13236,14 +13241,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44858</v>
+        <v>44487</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13256,7 +13261,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>8.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13293,14 +13298,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45265</v>
+        <v>44487</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13312,13 +13317,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13355,14 +13355,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13412,14 +13412,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45265</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13431,13 +13431,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13474,14 +13469,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13494,7 +13489,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13531,14 +13526,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45167</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13551,7 +13546,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13588,14 +13583,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44963</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13608,7 +13603,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13645,14 +13640,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45187</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13665,7 +13660,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13702,14 +13697,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13722,7 +13717,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13759,14 +13754,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45280</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13779,7 +13774,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13816,14 +13811,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45237</v>
+        <v>45168</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13836,7 +13831,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13873,14 +13868,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44893</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13893,7 +13888,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13930,14 +13925,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13950,7 +13945,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13987,14 +13982,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14007,7 +14002,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14044,14 +14039,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14064,7 +14059,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14101,14 +14096,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>44596</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14121,7 +14116,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14158,14 +14153,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14178,7 +14173,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14215,14 +14210,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14235,7 +14230,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14272,14 +14267,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45243</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14292,7 +14287,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14329,14 +14324,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44804</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14349,7 +14344,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14386,14 +14381,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44858</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14406,7 +14401,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14443,14 +14438,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45330</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14463,7 +14458,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14500,14 +14495,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44487</v>
+        <v>45707</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14520,7 +14515,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>8.9</v>
+        <v>1.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14557,14 +14552,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>44284</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14576,8 +14571,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14614,14 +14614,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45118</v>
+        <v>44928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14671,14 +14671,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45341</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14728,14 +14728,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44467</v>
+        <v>45485</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14785,14 +14785,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14842,14 +14842,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14899,14 +14899,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14956,14 +14956,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15013,14 +15013,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15070,14 +15070,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15127,14 +15127,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15184,14 +15184,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15241,14 +15241,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45174</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15298,14 +15298,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15355,14 +15355,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45020</v>
+        <v>45401</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15412,14 +15412,14 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45075</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44918.57599537037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45180</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45597.30930555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44858</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44455.51825231482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>45345.36196759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45884.3912037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45561</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>45884</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45330</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45699.46458333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45743.87862268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>45621.63099537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>45831.50364583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>45831.51761574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44602.54028935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45897.56592592593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>45827.46755787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45832.8088425926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>45832.83453703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>45174.75674768518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45896.4434837963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45832.81900462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45832.80668981482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44866</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44958</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>45777.60306712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>45902.68703703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45902.67114583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>45905.71422453703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45905.72167824074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45905.72809027778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45265</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44337.42444444444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45813.62960648148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>45489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>45813.63689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45442.50300925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44804.49277777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45916.48497685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>45916.49435185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45852.30276620371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44438.52559027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45095.5359375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44789</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>45925.28489583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45925.29628472222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45925.31177083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45925.32434027778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45868.43549768518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45868.42884259259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45929.50806712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45371.48430555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45371.49185185185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45931.51586805555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45875.67362268519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45881.46743055555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45880.49107638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45118</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45880.51369212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45490</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45936.51135416667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45280</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45882.638125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45883.29547453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45511.61868055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45511.62046296296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45644.68480324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45946.35024305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45712.4794212963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45237</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44252</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44918.56108796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45554.61420138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45246</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44826.47293981481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44588.74134259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>45961.42650462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45762.36817129629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45961.36596064815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45096</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45618</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45973.41554398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44467</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45974.54376157407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>45975.48846064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45978.81270833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45978.80552083333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44698.27141203704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>45146.43876157407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44553.68085648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45986.72568287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45096.61869212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44750.33450231481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44950.27739583333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>46034.55841435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>45716.57958333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45995.30582175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44804</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45075</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45999.65309027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45281</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45939</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>46000</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>46002.69364583334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>46002.49144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>46002.48832175926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44467</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45202.7725</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45700.65645833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45700.66422453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45639.49689814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45020</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44830.36655092592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45265</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45093</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>46013.49186342592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45562</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>46010.49047453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45021</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44872.615</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45468.5937962963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45749</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45174</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45691.56738425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45341</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45356</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44721</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>45243</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>45124.57806712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>45303.81549768519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45986</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>46070</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>46070</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>45538.6312962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>46070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44467</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44803</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45370</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45448.5952662037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45489</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44858</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45187.483125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45700.60572916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45600.63541666666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45187.53253472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45187.53527777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45581.59896990741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44855.40680555555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45049.48990740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44893.60265046296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45636.58703703704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45187.53984953704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45252</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45636.59827546297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44593.65674768519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45770.30033564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45544.5402662037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45544.54657407408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45700.6591087963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44487</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44487</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44732.56100694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>45700.62923611111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45322.93523148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45391.76952546297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>45187.48538194445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45187</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44889.27608796296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45012.40119212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45168</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45447.89599537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45748.40296296297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44721.63243055555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44596</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45777.73329861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45777.73553240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45777.60085648148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45777.60643518518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45777.72783564815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45777.73825231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45707</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44284</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>44928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45422.50045138889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45485</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45798.39635416667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45743.32578703704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45799.47976851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45799.48524305555</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45799.49456018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45802.92706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45805.31577546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45805.31810185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45806.27789351852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45401</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>45817.53369212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45161</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44918.57599537037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>45180</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44455.52289351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>45265</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45090.56901620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45597.30930555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45113.4774537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45390.35407407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44858</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44455.51825231482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45749</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>45345.36196759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45884.3912037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45561</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>45884</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45330</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45699.46458333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45743.87862268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>45621.63099537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>45831.50364583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>45831.51761574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44602.54028935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45897.56592592593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>45827.46755787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45832.8088425926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>45832.83453703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>45174.75674768518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45896.4434837963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45832.81900462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45832.80668981482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44866</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44958</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>45777.60306712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>45902.68703703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45902.67114583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>45905.71422453703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45905.72167824074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45905.72809027778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45265</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>44337.42444444444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45813.62960648148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45911.73181712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45912.33863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>45915</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>45489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>45813.63689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45442.50300925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44804.49277777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45916.48497685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>45916.49435185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45852.30276620371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44438.52559027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45095.5359375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44789</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>45925.28489583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45925.29628472222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45925.31177083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45925.32434027778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45868.43549768518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45868.42884259259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45929.50806712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45371.48430555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45371.49185185185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45931.51586805555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45875.67362268519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45881.46743055555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45880.49107638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45118</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45880.51369212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45490</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45936.51135416667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45280</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45882.638125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45883.29547453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45511.61868055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45511.62046296296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45644.68480324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45946.35024305555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45712.4794212963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45237</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44252</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44918.56108796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45554.61420138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45246</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44826.47293981481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44588.74134259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>45961.42650462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45762.36817129629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45961.36596064815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45096</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45618</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45973.41554398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44467</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45974.54376157407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>45975.48846064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45978.81270833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45978.80552083333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44698.27141203704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>45146.43876157407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44553.68085648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45986.72568287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45096.61869212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44750.33450231481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44950.27739583333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>46034.55841435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>45716.57958333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45995.30582175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44804</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45075</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45999.65309027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45281</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45939</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>46000</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>46002.69364583334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>46002.49144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>46002.48832175926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44467</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45202.7725</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45700.65645833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45700.66422453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45639.49689814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45020</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44830.36655092592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45265</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45093</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>46013.49186342592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45562</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>46010.49047453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45021</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44872.615</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45468.5937962963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45749</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45174</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45691.56738425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45341</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45356</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44721</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>45243</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>45124.57806712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>45303.81549768519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45986</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>46070</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>46070</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>45538.6312962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>46070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44467</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44803</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45370</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45448.5952662037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45489</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44858</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45187.483125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45700.60572916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45600.63541666666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45187.53253472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45187.53527777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45581.59896990741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44855.40680555555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45049.48990740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44893.60265046296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45636.58703703704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45187.53984953704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45252</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45636.59827546297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44593.65674768519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45770.30033564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45544.5402662037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45544.54657407408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45700.6591087963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44487</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44487</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44732.56100694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>45700.62923611111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45322.93523148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45391.76952546297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>45187.48538194445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45187</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44889.27608796296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45012.40119212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45168</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45447.89599537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45748.40296296297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44721.63243055555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45028</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44596</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45777.73329861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45777.73553240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45777.60085648148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45777.60643518518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45777.72783564815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45777.73825231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45707</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44284</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>44928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45422.50045138889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45485</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45798.39635416667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45743.32578703704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45799.47976851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45799.48524305555</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45799.49456018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45802.92706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45805.31577546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45805.31810185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45806.27789351852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45401</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>45817.53369212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38197-2025</t>
+          <t>A 38355-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45882.67037037037</v>
+        <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,133 +786,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38197-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45882.67037037037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38355-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45161</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,14 +1372,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24105-2021</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44336.46193287037</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1391,8 +1391,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1436,7 +1441,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,14 +1491,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 50444-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44866.47050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1505,13 +1510,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1548,14 +1548,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 50444-2022</t>
+          <t>A 17396-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44866.47050925926</v>
+        <v>44299.30657407407</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1605,14 +1605,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 17396-2021</t>
+          <t>A 24105-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44299.30657407407</v>
+        <v>44336.46193287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62615-2021</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44503.69758101852</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1833,14 +1833,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41125-2021</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44423.72306712963</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17400-2021</t>
+          <t>A 62615-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44299.31681712963</v>
+        <v>44503.69758101852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 41125-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44423.72306712963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 54376-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2061,14 +2061,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 54376-2021</t>
+          <t>A 17400-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44470</v>
+        <v>44299.31681712963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2175,14 +2175,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 53064-2021</t>
+          <t>A 704-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44467.79491898148</v>
+        <v>44568.56927083333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2232,14 +2232,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 704-2022</t>
+          <t>A 53064-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44568.56927083333</v>
+        <v>44467.79491898148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36525-2022</t>
+          <t>A 47858-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44804.54425925926</v>
+        <v>44855.41420138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2346,14 +2346,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47858-2022</t>
+          <t>A 36525-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44855.41420138889</v>
+        <v>44804.54425925926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28372-2022</t>
+          <t>A 27014-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44747</v>
+        <v>44350.37376157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2460,14 +2460,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27014-2021</t>
+          <t>A 28372-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44350.37376157408</v>
+        <v>44747</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45749</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,6 +2705,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2745,14 +2750,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2770,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2807,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45330</v>
+        <v>45187.483125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2822,7 +2827,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2864,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45187</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2884,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2921,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45180</v>
+        <v>44958</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2941,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2978,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44850</v>
+        <v>44487</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2998,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3035,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3050,7 +3055,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3087,14 +3092,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45167</v>
+        <v>45202.7725</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3107,7 +3112,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45265</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,13 +3168,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44853</v>
+        <v>45489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>44789</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45246</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44858</v>
+        <v>45562</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3567,8 +3567,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3605,14 +3610,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3625,7 +3630,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3662,14 +3667,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45749</v>
+        <v>45252</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,11 +3684,6 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -3724,14 +3724,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3781,14 +3781,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3838,14 +3838,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45561</v>
+        <v>45075</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3857,13 +3857,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>8.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3900,14 +3895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45884</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3920,7 +3915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3957,14 +3952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45330</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3977,7 +3972,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4014,14 +4009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4034,7 +4029,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4071,14 +4066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>44447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4091,7 +4086,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4128,14 +4123,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4147,13 +4142,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4190,14 +4180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45246</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4200,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4247,14 +4237,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4257,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4304,14 +4294,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4314,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4361,14 +4351,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4371,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4418,14 +4408,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4428,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4475,14 +4465,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4495,7 +4485,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4532,14 +4522,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4552,7 +4542,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4589,14 +4579,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4609,7 +4599,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4646,14 +4636,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>44467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4666,7 +4656,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4703,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45180</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4723,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4760,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45028</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4780,7 +4770,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4817,14 +4807,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44866</v>
+        <v>44252</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4837,7 +4827,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4874,14 +4864,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44958</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4894,7 +4884,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4931,14 +4921,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>44872.615</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4951,7 +4941,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4988,14 +4978,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5008,7 +4998,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5045,14 +5035,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>44467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5065,7 +5055,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5102,14 +5092,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45356</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5122,7 +5112,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5159,14 +5149,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45281</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5179,7 +5169,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5216,14 +5206,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>44853</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5236,7 +5226,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5273,14 +5263,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45265</v>
+        <v>44446</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5292,13 +5282,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5335,14 +5320,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5340,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5392,14 +5377,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5397,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5449,14 +5434,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>45093</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5469,7 +5454,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5506,14 +5491,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45265</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5525,8 +5510,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5563,14 +5553,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45915</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5583,7 +5573,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5620,14 +5610,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45489</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5640,7 +5630,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5677,14 +5667,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5697,7 +5687,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5734,14 +5724,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5754,7 +5744,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5791,14 +5781,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5811,7 +5801,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5848,14 +5838,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5868,7 +5858,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5905,14 +5895,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5925,7 +5915,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5962,14 +5952,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5982,7 +5972,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6019,14 +6009,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45561</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6038,8 +6028,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>8.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6076,14 +6071,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6096,7 +6091,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6133,14 +6128,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44789</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6153,7 +6148,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6190,14 +6185,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6210,7 +6205,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6247,14 +6242,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>44850</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6267,7 +6262,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.3</v>
+        <v>7.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6304,14 +6299,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6324,7 +6319,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6361,14 +6356,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6380,8 +6375,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>44721</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6475,14 +6475,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45370</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6532,14 +6532,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45168</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>13.5</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6589,14 +6589,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45096</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6646,14 +6646,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6665,8 +6665,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6703,14 +6708,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>45021</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6723,7 +6728,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6760,14 +6765,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6780,7 +6785,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>7.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6817,14 +6822,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45330</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6837,7 +6842,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6874,14 +6879,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6894,7 +6899,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6931,14 +6936,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45118</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6951,7 +6956,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6988,14 +6993,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45594</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7008,7 +7013,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7045,14 +7050,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45490</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7065,7 +7070,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7102,14 +7107,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7122,7 +7127,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7159,14 +7164,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45280</v>
+        <v>44858</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7179,7 +7184,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7216,14 +7221,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45882.638125</v>
+        <v>44803</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7236,7 +7241,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7273,14 +7278,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7292,8 +7297,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7330,14 +7340,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>44866</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7350,7 +7360,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7387,14 +7397,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7407,7 +7417,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7444,14 +7454,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44447</v>
+        <v>45265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7463,8 +7473,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7501,14 +7516,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7521,7 +7536,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7558,14 +7573,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7578,7 +7593,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>15.2</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7615,14 +7630,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7635,7 +7650,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7672,14 +7687,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45237</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,7 +7707,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7729,14 +7744,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44963</v>
+        <v>45265</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7748,8 +7763,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7786,14 +7806,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44252</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7806,7 +7826,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7843,14 +7863,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7863,7 +7883,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7900,14 +7920,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7920,7 +7940,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7957,14 +7977,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45246</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7977,7 +7997,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8014,14 +8034,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8034,7 +8054,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8071,14 +8091,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8091,7 +8111,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8128,14 +8148,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8148,7 +8168,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8185,14 +8205,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8205,7 +8225,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8242,14 +8262,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45167</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8262,7 +8282,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8299,14 +8319,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45096</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8319,7 +8339,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8356,14 +8376,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45618</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8375,13 +8395,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8433,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8453,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8490,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44467</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8510,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8547,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>44963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8552,7 +8567,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8604,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8624,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8661,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44893</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8681,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8718,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8738,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8775,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8795,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8832,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8852,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8889,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45280</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8909,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8946,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8950,13 +8965,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8993,14 +9003,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9050,14 +9060,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9070,7 +9080,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9107,14 +9117,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9127,7 +9137,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9164,14 +9174,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9184,7 +9194,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9221,14 +9231,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45237</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9241,7 +9251,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9278,14 +9288,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9298,7 +9308,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9335,14 +9345,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9355,7 +9365,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9392,14 +9402,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44804</v>
+        <v>44893</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9412,7 +9422,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9449,14 +9459,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45075</v>
+        <v>45915</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9469,7 +9479,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9506,14 +9516,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9526,7 +9536,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9563,14 +9573,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45281</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9583,7 +9593,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9620,14 +9630,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45939</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9640,7 +9650,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9.9</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9677,14 +9687,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46000</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9697,7 +9707,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9734,14 +9744,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9754,7 +9764,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>10.6</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9791,14 +9801,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9811,7 +9821,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9848,14 +9858,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45243</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9868,7 +9878,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9905,14 +9915,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44467</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9925,7 +9935,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9962,14 +9972,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9982,7 +9992,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10019,14 +10029,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45125</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10039,7 +10049,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10076,14 +10086,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45594</v>
+        <v>44804</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10096,7 +10106,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10133,14 +10143,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10153,7 +10163,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10190,14 +10200,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>44858</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10210,7 +10220,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10247,14 +10257,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10267,7 +10277,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>13.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10304,14 +10314,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45020</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10324,7 +10334,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10361,14 +10371,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45330</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10381,7 +10391,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10418,14 +10428,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45265</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10437,13 +10447,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10480,14 +10485,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45093</v>
+        <v>44487</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10500,7 +10505,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10537,14 +10542,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10557,7 +10562,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10594,14 +10599,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45562</v>
+        <v>45118</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10613,13 +10618,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10656,14 +10656,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45341</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10713,14 +10713,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45021</v>
+        <v>44467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10770,14 +10770,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44872.615</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10827,14 +10827,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>15.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10884,14 +10884,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45749</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10903,13 +10903,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10946,14 +10941,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45174</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10966,7 +10961,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11003,14 +10998,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11023,7 +11018,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11060,14 +11055,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45341</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11080,7 +11075,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11117,14 +11112,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45356</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11137,7 +11132,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11174,14 +11169,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44721</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11194,7 +11189,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11231,14 +11226,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45243</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11251,7 +11246,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11288,14 +11283,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11308,7 +11303,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11345,14 +11340,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11365,7 +11360,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11402,14 +11397,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45986</v>
+        <v>45174</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11422,7 +11417,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11459,14 +11454,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 9624-2026</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46070</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11478,13 +11473,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11521,14 +11511,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 9627-2026</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46070</v>
+        <v>45020</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11540,13 +11530,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11583,14 +11568,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>45075</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11603,7 +11588,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11640,14 +11625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9641-2026</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46070</v>
+        <v>45618</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11665,7 +11650,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11702,14 +11687,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45614</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11722,7 +11707,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11759,14 +11744,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44467</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11816,14 +11801,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44803</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11836,7 +11821,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11873,14 +11858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44446</v>
+        <v>45490</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11893,7 +11878,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11930,14 +11915,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45370</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11950,7 +11935,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11987,14 +11972,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12007,7 +11992,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12044,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45489</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12064,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12101,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44858</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12121,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12158,14 +12143,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12178,7 +12163,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12215,14 +12200,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12235,7 +12220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12272,14 +12257,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12292,7 +12277,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12329,14 +12314,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12349,7 +12334,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12386,14 +12371,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12406,7 +12391,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12443,14 +12428,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12463,7 +12448,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12500,14 +12485,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>44284</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12519,8 +12504,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12557,14 +12547,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45707</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12577,7 +12567,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12614,14 +12604,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12634,7 +12624,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12671,14 +12661,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45485</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12691,7 +12681,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>7.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12728,14 +12718,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45939</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12748,7 +12738,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3</v>
+        <v>9.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12785,14 +12775,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45252</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12805,7 +12795,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12842,14 +12832,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12862,7 +12852,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12899,14 +12889,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45075</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12919,7 +12909,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12956,14 +12946,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>46000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12976,7 +12966,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13013,14 +13003,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45818</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13033,7 +13023,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13070,14 +13060,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13090,7 +13080,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13127,14 +13117,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13147,7 +13137,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13184,14 +13174,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13204,7 +13194,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13241,14 +13231,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44487</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13261,7 +13251,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13298,14 +13288,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44487</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13318,7 +13308,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.3</v>
+        <v>10.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13355,14 +13345,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13375,7 +13365,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13412,14 +13402,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13432,7 +13422,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13469,14 +13459,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13489,7 +13479,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13526,14 +13516,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13546,7 +13536,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13583,14 +13573,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13640,14 +13630,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45187</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13660,7 +13650,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13697,14 +13687,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13717,7 +13707,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13754,14 +13744,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>45401</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13774,7 +13764,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13811,14 +13801,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45168</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13831,7 +13821,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13868,14 +13858,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13888,7 +13878,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13925,14 +13915,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13945,7 +13935,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13982,14 +13972,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14002,7 +13992,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14039,14 +14029,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45028</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14059,7 +14049,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14096,14 +14086,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44596</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14116,7 +14106,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14153,14 +14143,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14173,7 +14163,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14210,14 +14200,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14230,7 +14220,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14267,14 +14257,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14287,7 +14277,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14324,14 +14314,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14344,7 +14334,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14381,14 +14371,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 9627-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>46070</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14400,8 +14390,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14438,14 +14433,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 9624-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>46070</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14457,8 +14452,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14495,14 +14495,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 9641-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45707</v>
+        <v>46070</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14514,8 +14514,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14552,14 +14557,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44284</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14571,13 +14576,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14614,14 +14614,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44928</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14671,14 +14671,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14728,14 +14728,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45485</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14785,14 +14785,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45818</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14842,14 +14842,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45986</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14899,14 +14899,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14956,14 +14956,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15013,14 +15013,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15070,14 +15070,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15127,14 +15127,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>8.300000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15184,14 +15184,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45882.638125</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15241,14 +15241,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15298,14 +15298,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45884</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15355,14 +15355,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45401</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15412,14 +15412,14 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38355-2023</t>
+          <t>A 38197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45161</v>
+        <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,133 +786,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38355-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45161</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38197-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45882.67037037037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1372,14 +1372,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 24105-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1391,13 +1391,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1441,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1498,7 +1493,7 @@
         <v>44866.47050925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1555,7 +1550,7 @@
         <v>44299.30657407407</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1605,14 +1600,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24105-2021</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44336.46193287037</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,8 +1619,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 62615-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44503.69758101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1833,14 +1833,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 41125-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44423.72306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 62615-2021</t>
+          <t>A 17400-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44503.69758101852</v>
+        <v>44299.31681712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 41125-2021</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44423.72306712963</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 54376-2021</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44470</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2061,14 +2061,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17400-2021</t>
+          <t>A 54376-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44299.31681712963</v>
+        <v>44470</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>44698.27609953703</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2175,14 +2175,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 704-2022</t>
+          <t>A 53064-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44568.56927083333</v>
+        <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2232,14 +2232,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 53064-2021</t>
+          <t>A 704-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44467.79491898148</v>
+        <v>44568.56927083333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 47858-2022</t>
+          <t>A 36525-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44855.41420138889</v>
+        <v>44804.54425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2346,14 +2346,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36525-2022</t>
+          <t>A 47858-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44804.54425925926</v>
+        <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 27014-2021</t>
+          <t>A 28372-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44350.37376157408</v>
+        <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2460,14 +2460,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28372-2022</t>
+          <t>A 27014-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44747</v>
+        <v>44350.37376157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2688,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45749</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,11 +2705,6 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2750,14 +2745,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2770,7 +2765,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2807,14 +2802,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45330</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2827,7 +2822,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2864,14 +2859,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45187</v>
+        <v>44596</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2884,7 +2879,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2921,14 +2916,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44958</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2941,7 +2936,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2978,14 +2973,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44487</v>
+        <v>45180</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2998,7 +2993,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3035,14 +3030,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>44850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3055,7 +3050,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3092,14 +3087,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3112,7 +3107,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3149,14 +3144,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3169,7 +3164,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3206,14 +3201,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45489</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3221,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3263,14 +3258,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44789</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3320,14 +3315,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3340,7 +3335,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3377,14 +3372,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3397,7 +3392,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3434,14 +3429,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3454,7 +3449,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3491,14 +3486,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3511,7 +3506,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3548,14 +3543,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45562</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3567,13 +3562,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3610,14 +3600,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45125</v>
+        <v>45167</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3630,7 +3620,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3667,14 +3657,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45252</v>
+        <v>45265</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,8 +3676,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3724,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45707</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3744,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3781,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>45884</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3801,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3838,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45075</v>
+        <v>44853</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3858,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3895,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3952,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>44284</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3971,8 +3966,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4009,14 +4009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4066,14 +4066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44447</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4123,14 +4123,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45246</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4180,14 +4180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45246</v>
+        <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4237,14 +4237,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4294,14 +4294,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4351,14 +4351,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4408,14 +4408,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4465,14 +4465,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>45485</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4522,14 +4522,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4579,14 +4579,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4636,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44467</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4693,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45180</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4750,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 16303-2023</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45028</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4807,14 +4807,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44252</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4864,14 +4864,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4921,14 +4921,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44872.615</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4978,14 +4978,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5035,14 +5035,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44467</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5092,14 +5092,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45356</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5149,14 +5149,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45281</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5206,14 +5206,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44853</v>
+        <v>45818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5263,14 +5263,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44446</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5320,14 +5320,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5377,14 +5377,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45246</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5434,14 +5434,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45093</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5491,14 +5491,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45265</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5510,13 +5510,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5553,14 +5548,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5573,7 +5568,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5610,14 +5605,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5630,7 +5625,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5667,14 +5662,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5687,7 +5682,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5724,14 +5719,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45915</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5744,7 +5739,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5781,14 +5776,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5801,7 +5796,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5838,14 +5833,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45614</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5858,7 +5853,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5895,14 +5890,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5915,7 +5910,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5952,14 +5947,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5972,7 +5967,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6009,14 +6004,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45561</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6028,13 +6023,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>8.6</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6071,14 +6061,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45401</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6091,7 +6081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6128,14 +6118,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45749</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6147,8 +6137,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6185,14 +6180,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6205,7 +6200,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6242,14 +6237,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44850</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6262,7 +6257,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.9</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6299,14 +6294,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6319,7 +6314,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6356,14 +6351,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45749</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6375,13 +6370,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6418,14 +6408,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44721</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6438,7 +6428,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6475,14 +6465,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45370</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6495,7 +6485,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6532,14 +6522,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45168</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6552,7 +6542,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>13.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6589,14 +6579,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45096</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6609,7 +6599,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6646,14 +6636,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45561</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6667,11 +6657,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6708,14 +6698,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45021</v>
+        <v>45330</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6728,7 +6718,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6765,14 +6755,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6784,8 +6774,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6822,14 +6817,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45330</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6842,7 +6837,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6879,14 +6874,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6899,7 +6894,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6936,14 +6931,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6956,7 +6951,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6993,14 +6988,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45594</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7013,7 +7008,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7050,14 +7045,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7070,7 +7065,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7107,14 +7102,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45489</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7127,7 +7122,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7164,14 +7159,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44858</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7184,7 +7179,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7221,14 +7216,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44803</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7241,7 +7236,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7278,14 +7273,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>44866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7297,13 +7292,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7340,14 +7330,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7360,7 +7350,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7397,14 +7387,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44596</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7417,7 +7407,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>15.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7454,14 +7444,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45265</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7473,13 +7463,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7516,14 +7501,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7535,8 +7520,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7573,14 +7563,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7593,7 +7583,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7630,14 +7620,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7650,7 +7640,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7687,14 +7677,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7707,7 +7697,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7744,14 +7734,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45265</v>
+        <v>45489</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7763,13 +7753,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7806,14 +7791,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7826,7 +7811,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7863,14 +7848,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7883,7 +7868,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7920,14 +7905,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7940,7 +7925,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7977,14 +7962,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7997,7 +7982,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8034,14 +8019,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>44789</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8054,7 +8039,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8091,14 +8076,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8111,7 +8096,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8148,14 +8133,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8168,7 +8153,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8205,14 +8190,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8225,7 +8210,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8262,14 +8247,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45167</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8282,7 +8267,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8319,14 +8304,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8339,7 +8324,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8376,14 +8361,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8396,7 +8381,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8433,14 +8418,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8453,7 +8438,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8490,14 +8475,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8510,7 +8495,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8547,14 +8532,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44963</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8567,7 +8552,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8604,14 +8589,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>45118</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8624,7 +8609,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8661,14 +8646,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>45882.638125</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8681,7 +8666,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8718,14 +8703,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8738,7 +8723,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8775,14 +8760,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8795,7 +8780,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8832,14 +8817,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8852,7 +8837,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8896,7 +8881,7 @@
         <v>45280</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8946,14 +8931,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8966,7 +8951,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9003,14 +8988,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9023,7 +9008,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9060,14 +9045,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45618</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9079,8 +9064,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9117,14 +9107,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>44447</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9137,7 +9127,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9174,14 +9164,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9194,7 +9184,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9231,14 +9221,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45237</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9251,7 +9241,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9288,14 +9278,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>45237</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9308,7 +9298,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9345,14 +9335,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9365,7 +9355,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9402,14 +9392,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44893</v>
+        <v>44963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9422,7 +9412,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9459,14 +9449,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45915</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9479,7 +9469,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9516,14 +9506,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 9708-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>44252</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9536,7 +9526,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9573,14 +9563,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9593,7 +9583,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9630,14 +9620,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9650,7 +9640,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9687,14 +9677,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9707,7 +9697,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9744,14 +9734,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9764,7 +9754,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9801,14 +9791,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>45246</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9821,7 +9811,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9858,14 +9848,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45243</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9878,7 +9868,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9915,14 +9905,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9935,7 +9925,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9972,14 +9962,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9992,7 +9982,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10029,14 +10019,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45096</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10049,7 +10039,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10086,14 +10076,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44804</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10106,7 +10096,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10143,14 +10133,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>44467</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10163,7 +10153,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10200,14 +10190,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44858</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10220,7 +10210,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10257,14 +10247,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>44893</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10277,7 +10267,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>13.5</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10314,14 +10304,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10334,7 +10324,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10371,14 +10361,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45330</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10391,7 +10381,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10428,14 +10418,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10448,7 +10438,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10485,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44487</v>
+        <v>45939</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10505,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10542,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10561,8 +10551,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10599,14 +10594,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45118</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10619,7 +10614,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10656,14 +10651,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45341</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10676,7 +10671,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10713,14 +10708,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44467</v>
+        <v>46000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10733,7 +10728,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10770,14 +10765,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10790,7 +10785,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10827,14 +10822,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10847,7 +10842,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>15.2</v>
+        <v>10.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10884,14 +10879,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10904,7 +10899,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10941,14 +10936,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10961,7 +10956,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10998,14 +10993,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11018,7 +11013,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11055,14 +11050,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>44804</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11075,7 +11070,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11112,14 +11107,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45075</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11132,7 +11127,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11169,14 +11164,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>45281</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11189,7 +11184,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11226,14 +11221,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11246,7 +11241,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11283,14 +11278,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11303,7 +11298,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11340,14 +11335,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>44467</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11360,7 +11355,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11397,14 +11392,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45174</v>
+        <v>45202.7725</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11417,7 +11412,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11454,14 +11449,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11474,7 +11469,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11511,14 +11506,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45020</v>
+        <v>45594</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11531,7 +11526,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11568,14 +11563,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45075</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11588,7 +11583,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11625,14 +11620,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45618</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11644,13 +11639,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11687,14 +11677,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11707,7 +11697,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11744,14 +11734,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11764,7 +11754,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11801,14 +11791,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11821,7 +11811,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11858,14 +11848,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45490</v>
+        <v>45265</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11877,8 +11867,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11915,14 +11910,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45093</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11935,7 +11930,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11972,14 +11967,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45562</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11991,8 +11986,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45021</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>44872.615</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45749</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12219,8 +12219,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12257,14 +12262,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45174</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12277,7 +12282,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12314,14 +12319,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12334,7 +12339,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12371,14 +12376,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>45986</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12391,7 +12396,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12428,14 +12433,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 9624-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>46070</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12447,8 +12452,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12485,14 +12495,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 9627-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44284</v>
+        <v>46070</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12510,7 +12520,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12547,14 +12557,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45707</v>
+        <v>45341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12567,7 +12577,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12604,14 +12614,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44928</v>
+        <v>45356</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12624,7 +12634,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12661,14 +12671,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 9641-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45485</v>
+        <v>46070</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12680,8 +12690,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12718,14 +12733,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45939</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12738,7 +12753,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>9.9</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12775,14 +12790,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>44721</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12795,7 +12810,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12832,14 +12847,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45243</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12852,7 +12867,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12889,14 +12904,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12909,7 +12924,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12946,14 +12961,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46000</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12966,7 +12981,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13003,14 +13018,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45818</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13023,7 +13038,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13060,14 +13075,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45614</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13080,7 +13095,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13117,14 +13132,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>44467</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13137,7 +13152,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13174,14 +13189,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>44803</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13194,7 +13209,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13231,14 +13246,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13251,7 +13266,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13288,14 +13303,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45370</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13308,7 +13323,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>10.6</v>
+        <v>5.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13345,14 +13360,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13365,7 +13380,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13402,14 +13417,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45489</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13422,7 +13437,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13459,14 +13474,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>44858</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13479,7 +13494,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13516,14 +13531,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45187.483125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13536,7 +13551,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>8.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13573,14 +13588,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13593,7 +13608,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13630,14 +13645,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13650,7 +13665,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13687,14 +13702,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13707,7 +13722,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13744,14 +13759,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45401</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13764,7 +13779,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13801,14 +13816,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13821,7 +13836,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13858,14 +13873,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13878,7 +13893,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.8</v>
+        <v>0.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13915,14 +13930,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13935,7 +13950,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13972,14 +13987,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13992,7 +14007,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14029,14 +14044,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14049,7 +14064,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14086,14 +14101,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14106,7 +14121,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14143,14 +14158,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45252</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14163,7 +14178,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14200,14 +14215,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14220,7 +14235,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14257,14 +14272,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45075</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14277,7 +14292,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14314,14 +14329,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14334,7 +14349,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14371,14 +14386,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 9627-2026</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46070</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14390,13 +14405,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14433,14 +14443,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9624-2026</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46070</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14452,13 +14462,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14495,14 +14500,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 9641-2026</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46070</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14514,13 +14519,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14557,14 +14557,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14614,14 +14614,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>44487</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.1</v>
+        <v>8.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14671,14 +14671,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>44487</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14728,14 +14728,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.7</v>
+        <v>7.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14785,14 +14785,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14842,14 +14842,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45986</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14899,14 +14899,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14956,14 +14956,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15013,14 +15013,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45187</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15070,14 +15070,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15127,14 +15127,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15184,14 +15184,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45882.638125</v>
+        <v>45168</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15241,14 +15241,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15298,14 +15298,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45884</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15355,14 +15355,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15412,14 +15412,14 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45028</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z259"/>
+  <dimension ref="A1:Z258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38197-2025</t>
+          <t>A 38355-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45882.67037037037</v>
+        <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,133 +786,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38197-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45882.67037037037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38355-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45161</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44423</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>44423.73550925926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44456</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44336.46193287037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44474.63831018518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1486,14 +1486,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50444-2022</t>
+          <t>A 3418-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44866.47050925926</v>
+        <v>44585.49423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1505,8 +1505,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1543,14 +1548,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17396-2021</t>
+          <t>A 50444-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44299.30657407407</v>
+        <v>44866.47050925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1568,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1600,14 +1605,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3418-2022</t>
+          <t>A 17396-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44585.49423611111</v>
+        <v>44299.30657407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,13 +1624,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>44468</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44340.67737268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62615-2021</t>
+          <t>A 54376-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44503.69758101852</v>
+        <v>44470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1833,14 +1833,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41125-2021</t>
+          <t>A 62615-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44423.72306712963</v>
+        <v>44503.69758101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17400-2021</t>
+          <t>A 41125-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44299.31681712963</v>
+        <v>44423.72306712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59855-2021</t>
+          <t>A 17400-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44494.58787037037</v>
+        <v>44299.31681712963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20077-2022</t>
+          <t>A 20080-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44698.25771990741</v>
+        <v>44698.27609953703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2061,14 +2061,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 54376-2021</t>
+          <t>A 59855-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44470</v>
+        <v>44494.58787037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20080-2022</t>
+          <t>A 20077-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44698.27609953703</v>
+        <v>44698.25771990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>44467.79491898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2232,14 +2232,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 704-2022</t>
+          <t>A 36525-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44568.56927083333</v>
+        <v>44804.54425925926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36525-2022</t>
+          <t>A 704-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44804.54425925926</v>
+        <v>44568.56927083333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>44855.41420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44747</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2460,14 +2460,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27014-2021</t>
+          <t>A 4298-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44350.37376157408</v>
+        <v>44588</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4298-2022</t>
+          <t>A 27014-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44588</v>
+        <v>44350.37376157408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>44858.70835648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2631,14 +2631,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54362-2021</t>
+          <t>A 16243-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44470</v>
+        <v>45749</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,8 +2650,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2688,14 +2693,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13352-2024</t>
+          <t>A 54362-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45387.32704861111</v>
+        <v>44470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2708,7 +2713,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2745,14 +2750,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20948-2024</t>
+          <t>A 43758-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45439.56258101852</v>
+        <v>45187.483125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2765,7 +2770,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2802,14 +2807,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5089-2024</t>
+          <t>A 43784-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45330</v>
+        <v>45187</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2822,7 +2827,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2859,14 +2864,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 5707-2022</t>
+          <t>A 62053-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44596</v>
+        <v>44918.57599537037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2879,7 +2884,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2916,14 +2921,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62053-2022</t>
+          <t>A 14355-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44918.57599537037</v>
+        <v>45012.40119212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2936,7 +2941,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2973,14 +2978,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42280-2023</t>
+          <t>A 4293-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45180</v>
+        <v>44588.74134259259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2998,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3030,14 +3035,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46657-2022</t>
+          <t>A 3987-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44850</v>
+        <v>45322.93523148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3050,7 +3055,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3087,14 +3092,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8698-2025</t>
+          <t>A 47454-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45712.4794212963</v>
+        <v>45202.7725</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3107,7 +3112,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3144,14 +3149,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49725-2021</t>
+          <t>A 13913-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44455.52289351852</v>
+        <v>45391.76952546297</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3164,7 +3169,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3201,14 +3206,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21117-2025</t>
+          <t>A 49725-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45777.73329861111</v>
+        <v>44455.52289351852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3221,7 +3226,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3258,14 +3263,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21118-2025</t>
+          <t>A 46254-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45777.73553240741</v>
+        <v>45581.59896990741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3278,7 +3283,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3315,14 +3320,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21076-2025</t>
+          <t>A 33575-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45777.60085648148</v>
+        <v>44789</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3335,7 +3340,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3372,14 +3377,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21082-2025</t>
+          <t>A 13352-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45777.60643518518</v>
+        <v>45387.32704861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3392,7 +3397,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3429,14 +3434,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21116-2025</t>
+          <t>A 13610-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45777.72783564815</v>
+        <v>45390.35407407407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3486,14 +3491,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21120-2025</t>
+          <t>A 56393-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45777.73825231481</v>
+        <v>45243</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3506,7 +3511,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3543,14 +3548,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38510-2025</t>
+          <t>A 36653-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45884.3912037037</v>
+        <v>44804</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3600,14 +3605,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39668-2023</t>
+          <t>A 59026-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45167</v>
+        <v>45252</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3620,7 +3625,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3657,14 +3662,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61533-2023</t>
+          <t>A 48229-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45265</v>
+        <v>44858</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3676,13 +3681,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8119-2025</t>
+          <t>A 50304-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45707</v>
+        <v>45600.63541666666</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38903-2025</t>
+          <t>A 8747-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45884</v>
+        <v>45356</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48188-2022</t>
+          <t>A 5089-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44853</v>
+        <v>45330</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25837-2023</t>
+          <t>A 58247-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45090.56901620371</v>
+        <v>44487</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>8.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15338-2021</t>
+          <t>A 23254-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44284</v>
+        <v>45075</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3966,13 +3966,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4009,14 +4004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6415-2025</t>
+          <t>A 5128-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45699.46458333333</v>
+        <v>45691.56738425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4029,7 +4024,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4066,14 +4061,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15082-2025</t>
+          <t>A 49720-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45743.87862268519</v>
+        <v>44455.51825231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4086,7 +4081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4123,14 +4118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57730-2023</t>
+          <t>A 53370-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45246</v>
+        <v>45614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4143,7 +4138,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4180,14 +4175,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 270-2023</t>
+          <t>A 31772-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44928</v>
+        <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4200,7 +4195,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4237,14 +4232,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49720-2021</t>
+          <t>A 4992-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44455.51825231482</v>
+        <v>44958</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4257,7 +4252,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4294,14 +4289,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30961-2023</t>
+          <t>A 6662-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45113.4774537037</v>
+        <v>45341</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4314,7 +4309,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4351,14 +4346,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13610-2024</t>
+          <t>A 53078-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45390.35407407407</v>
+        <v>44467</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4371,7 +4366,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4408,14 +4403,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18314-2024</t>
+          <t>A 58249-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45422.50045138889</v>
+        <v>44487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4428,7 +4423,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4465,14 +4460,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29707-2024</t>
+          <t>A 64718-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45485</v>
+        <v>45281</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4485,7 +4480,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.7</v>
+        <v>4.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4522,14 +4517,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48628-2025</t>
+          <t>A 53077-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45936.51135416667</v>
+        <v>44467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4542,7 +4537,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4579,14 +4574,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49758-2024</t>
+          <t>A 1450-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45597.30930555556</v>
+        <v>45303.81549768519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4599,7 +4594,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4636,14 +4631,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40863-2025</t>
+          <t>A 19307-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45897.56592592593</v>
+        <v>45049.48990740741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4656,7 +4651,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40552-2025</t>
+          <t>A 26210-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45896.4434837963</v>
+        <v>45468.5937962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31227-2025</t>
+          <t>A 25487-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45832.80668981482</v>
+        <v>44732.56100694444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21080-2025</t>
+          <t>A 46657-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45777.60306712963</v>
+        <v>44850</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4827,7 +4822,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48229-2022</t>
+          <t>A 3504-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44858</v>
+        <v>44950.27739583333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4884,7 +4879,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4921,14 +4916,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41832-2025</t>
+          <t>A 58970-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45902.68703703704</v>
+        <v>45636.59827546297</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4941,7 +4936,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4978,14 +4973,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41826-2025</t>
+          <t>A 27264-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45902.67114583333</v>
+        <v>45096</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4998,7 +4993,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5035,14 +5030,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42615-2025</t>
+          <t>A 29066-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45905.71422453703</v>
+        <v>44750.33450231481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5055,7 +5050,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5092,14 +5087,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42618-2025</t>
+          <t>A 24356-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45905.72167824074</v>
+        <v>44337.42444444444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5112,7 +5107,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5149,14 +5144,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42620-2025</t>
+          <t>A 15776-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45905.72809027778</v>
+        <v>45021</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5169,7 +5164,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5206,14 +5201,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28312-2025</t>
+          <t>A 57725-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45818</v>
+        <v>45246</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5226,7 +5221,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5263,14 +5258,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24500-2025</t>
+          <t>A 5082-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45798.39635416667</v>
+        <v>45330</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5283,7 +5278,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5320,14 +5315,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14810-2025</t>
+          <t>A 34083-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45743.32578703704</v>
+        <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5340,7 +5335,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5377,14 +5372,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24861-2025</t>
+          <t>A 6785-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45799.47976851852</v>
+        <v>45700.65645833333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5397,7 +5392,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5434,14 +5429,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24866-2025</t>
+          <t>A 6793-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45799.48524305555</v>
+        <v>45700.66422453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5454,7 +5449,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5491,14 +5486,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24879-2025</t>
+          <t>A 41347-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45799.49456018519</v>
+        <v>45174.75674768518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5511,7 +5506,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5548,14 +5543,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25482-2025</t>
+          <t>A 30091-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45802.92706018518</v>
+        <v>45489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5568,7 +5563,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5605,14 +5600,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43637-2025</t>
+          <t>A 49758-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45911.73181712963</v>
+        <v>45597.30930555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5625,7 +5620,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5662,14 +5657,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43656-2025</t>
+          <t>A 25837-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45912.33863425926</v>
+        <v>45090.56901620371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5682,7 +5677,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5719,14 +5714,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44126-2025</t>
+          <t>A 50440-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45915</v>
+        <v>44866</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5739,7 +5734,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5776,14 +5771,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26069-2025</t>
+          <t>A 5707-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45805.31577546296</v>
+        <v>44596</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5796,7 +5791,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5833,14 +5828,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26071-2025</t>
+          <t>A 32826-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45805.31810185185</v>
+        <v>45124.57806712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5853,7 +5848,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5890,14 +5885,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44383-2025</t>
+          <t>A 23625-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45916.48497685185</v>
+        <v>44721.63243055555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5910,7 +5905,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5947,14 +5942,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44394-2025</t>
+          <t>A 21721-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45916.49435185185</v>
+        <v>45442.50300925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5967,7 +5962,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6004,14 +5999,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26361-2025</t>
+          <t>A 58962-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45806.27789351852</v>
+        <v>45636.58703703704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6024,7 +6019,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,14 +6056,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15436-2024</t>
+          <t>A 47856-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45401</v>
+        <v>44855.40680555555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6081,7 +6076,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6118,14 +6113,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16243-2025</t>
+          <t>A 36905-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45749</v>
+        <v>45538.6312962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6137,13 +6132,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6180,14 +6170,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27955-2025</t>
+          <t>A 41323-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45817.53369212963</v>
+        <v>44826.47293981481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6200,7 +6190,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6237,14 +6227,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46232-2025</t>
+          <t>A 60859-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45925.28489583333</v>
+        <v>45644.68480324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6257,7 +6247,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6294,14 +6284,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46235-2025</t>
+          <t>A 37962-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45925.29628472222</v>
+        <v>45544.5402662037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6314,7 +6304,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6351,14 +6341,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46238-2025</t>
+          <t>A 37963-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45925.31177083333</v>
+        <v>45544.54657407408</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6371,7 +6361,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6408,14 +6398,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46245-2025</t>
+          <t>A 32177-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45925.32434027778</v>
+        <v>45511.61868055556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6428,7 +6418,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6465,14 +6455,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7316-2024</t>
+          <t>A 32179-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45345.36196759259</v>
+        <v>45511.62046296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6485,7 +6475,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6522,14 +6512,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46971-2025</t>
+          <t>A 41357-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45929.50806712963</v>
+        <v>45174</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6542,7 +6532,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6579,14 +6569,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47645-2025</t>
+          <t>A 56625-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45931.51586805555</v>
+        <v>44893.60265046296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6599,7 +6589,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6636,14 +6626,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42042-2024</t>
+          <t>A 16303-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45561</v>
+        <v>45028</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6655,13 +6645,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6698,14 +6683,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5082-2024</t>
+          <t>A 55909-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45330</v>
+        <v>44889.27608796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6718,7 +6703,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6755,14 +6740,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 55285-2024</t>
+          <t>A 51901-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45621.63099537037</v>
+        <v>44872.615</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6774,13 +6759,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6817,14 +6797,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30654-2025</t>
+          <t>A 62045-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45831.50364583333</v>
+        <v>44918.56108796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6837,7 +6817,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6874,14 +6854,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30669-2025</t>
+          <t>A 15434-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45831.51761574074</v>
+        <v>45020</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6894,7 +6874,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6931,14 +6911,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30289-2025</t>
+          <t>A 23259-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45827.46755787037</v>
+        <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6951,7 +6931,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6988,14 +6968,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31228-2025</t>
+          <t>A 43787-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45832.8088425926</v>
+        <v>45187.53527777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7045,14 +7025,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31235-2025</t>
+          <t>A 30101-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45832.83453703704</v>
+        <v>45489</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7065,7 +7045,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7102,14 +7082,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31231-2025</t>
+          <t>A 47283-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45832.81900462963</v>
+        <v>44447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7122,7 +7102,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7159,14 +7139,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6781-2022</t>
+          <t>A 41918-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44602.54028935185</v>
+        <v>44830.36655092592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7179,7 +7159,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7216,14 +7196,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41347-2023</t>
+          <t>A 43760-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45174.75674768518</v>
+        <v>45187.48538194445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7236,7 +7216,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7273,14 +7253,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50440-2022</t>
+          <t>A 43790-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44866</v>
+        <v>45187.53984953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7293,7 +7273,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7330,14 +7310,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4992-2023</t>
+          <t>A 57730-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44958</v>
+        <v>45246</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7350,7 +7330,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7387,14 +7367,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 50728-2025</t>
+          <t>A 6763-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45946.35024305555</v>
+        <v>45700.62923611111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7407,7 +7387,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>15.2</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7444,14 +7424,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27675-2025</t>
+          <t>A 30314-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45813.62960648148</v>
+        <v>45490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7464,7 +7444,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7501,14 +7481,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61532-2023</t>
+          <t>A 20948-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45265</v>
+        <v>45439.56258101852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7520,13 +7500,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7563,14 +7538,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 24356-2021</t>
+          <t>A 42271-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44337.42444444444</v>
+        <v>45562</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7582,8 +7557,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7620,14 +7600,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27678-2025</t>
+          <t>A 42042-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45813.63689814815</v>
+        <v>45561</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7639,8 +7619,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>8.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7677,14 +7662,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 36508-2022</t>
+          <t>A 15653-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44804.49277777778</v>
+        <v>45748.40296296297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7697,7 +7682,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7734,14 +7719,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30101-2024</t>
+          <t>A 52813-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45489</v>
+        <v>44467</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7754,7 +7739,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7791,14 +7776,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35030-2025</t>
+          <t>A 35325-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45852.30276620371</v>
+        <v>45146.43876157407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7811,7 +7796,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7848,14 +7833,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21721-2024</t>
+          <t>A 42280-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45442.50300925926</v>
+        <v>45180</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7868,7 +7853,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7905,14 +7890,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44816-2021</t>
+          <t>A 10996-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44438.52559027778</v>
+        <v>45370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7925,7 +7910,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7962,14 +7947,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27036-2023</t>
+          <t>A 21118-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45095.5359375</v>
+        <v>45777.73553240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7982,7 +7967,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8019,14 +8004,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33575-2022</t>
+          <t>A 21076-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44789</v>
+        <v>45777.60085648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8039,7 +8024,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8076,14 +8061,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 36335-2025</t>
+          <t>A 21082-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45868.43549768518</v>
+        <v>45777.60643518518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8096,7 +8081,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8133,14 +8118,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36331-2025</t>
+          <t>A 21116-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45868.42884259259</v>
+        <v>45777.72783564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8153,7 +8138,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8190,14 +8175,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11157-2024</t>
+          <t>A 21120-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45371.48430555555</v>
+        <v>45777.73825231481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8210,7 +8195,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8247,14 +8232,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11163-2024</t>
+          <t>A 21117-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45371.49185185185</v>
+        <v>45777.73329861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8267,7 +8252,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8304,14 +8289,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37198-2025</t>
+          <t>A 40067-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45875.67362268519</v>
+        <v>45168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8324,7 +8309,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8361,14 +8346,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37864-2025</t>
+          <t>A 15338-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45881.46743055555</v>
+        <v>44284</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8380,8 +8365,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8418,14 +8408,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37654-2025</t>
+          <t>A 27258-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45880.49107638889</v>
+        <v>45096.61869212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8438,7 +8428,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8475,14 +8465,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37666-2025</t>
+          <t>A 8119-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45880.51369212963</v>
+        <v>45707</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8495,7 +8485,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8532,14 +8522,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53895-2025</t>
+          <t>A 73961-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45961.42650462963</v>
+        <v>44553.68085648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8551,8 +8541,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8589,14 +8584,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31772-2023</t>
+          <t>A 20078-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45118</v>
+        <v>44698.27141203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8609,7 +8604,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8646,14 +8641,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 38176-2025</t>
+          <t>A 6781-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45882.638125</v>
+        <v>44602.54028935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8666,7 +8661,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8703,14 +8698,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 38215-2025</t>
+          <t>A 49030-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45883.29547453704</v>
+        <v>45594</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8723,7 +8718,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8760,14 +8755,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53845-2025</t>
+          <t>A 6415-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45961.36596064815</v>
+        <v>45699.46458333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8780,7 +8775,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8817,14 +8812,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30314-2024</t>
+          <t>A 48188-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45490</v>
+        <v>44853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8837,7 +8832,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8874,14 +8869,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 64481-2023</t>
+          <t>A 47022-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45280</v>
+        <v>44446</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8894,7 +8889,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8931,14 +8926,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32177-2024</t>
+          <t>A 8698-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45511.61868055556</v>
+        <v>45712.4794212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8951,7 +8946,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8988,14 +8983,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32179-2024</t>
+          <t>A 15082-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45511.62046296296</v>
+        <v>45743.87862268519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9008,7 +9003,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9045,14 +9040,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54833-2024</t>
+          <t>A 26746-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45618</v>
+        <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9064,13 +9059,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9107,14 +9097,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47283-2021</t>
+          <t>A 36406-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44447</v>
+        <v>44803</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9127,7 +9117,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9164,14 +9154,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60859-2024</t>
+          <t>A 55285-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45644.68480324074</v>
+        <v>45621.63099537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9183,8 +9173,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9221,14 +9216,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55918-2025</t>
+          <t>A 61532-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45973.41554398148</v>
+        <v>45265</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9240,8 +9235,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9278,14 +9278,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55074-2023</t>
+          <t>A 270-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45237</v>
+        <v>44928</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9335,14 +9335,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56240-2025</t>
+          <t>A 44816-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.54376157407</v>
+        <v>44438.52559027778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9392,14 +9392,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5818-2023</t>
+          <t>A 27036-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44963</v>
+        <v>45095.5359375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9449,14 +9449,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56554-2025</t>
+          <t>A 29707-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45975.48846064815</v>
+        <v>45485</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9506,14 +9506,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 9708-2021</t>
+          <t>A 9828-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44252</v>
+        <v>45716.57958333333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9563,14 +9563,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62045-2022</t>
+          <t>A 19439-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44918.56108796296</v>
+        <v>45770.30033564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9620,14 +9620,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 57012-2025</t>
+          <t>A 40552-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45978.81270833333</v>
+        <v>45896.4434837963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9677,14 +9677,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 40244-2024</t>
+          <t>A 43786-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45554.61420138889</v>
+        <v>45187.53253472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9734,14 +9734,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57010-2025</t>
+          <t>A 40863-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45978.80552083333</v>
+        <v>45897.56592592593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9791,14 +9791,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 57725-2023</t>
+          <t>A 18314-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45246</v>
+        <v>45422.50045138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9848,14 +9848,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 41323-2022</t>
+          <t>A 11157-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44826.47293981481</v>
+        <v>45371.48430555555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9905,14 +9905,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4293-2022</t>
+          <t>A 11163-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44588.74134259259</v>
+        <v>45371.49185185185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9962,14 +9962,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18268-2025</t>
+          <t>A 41832-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45762.36817129629</v>
+        <v>45902.68703703704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10019,14 +10019,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 27264-2023</t>
+          <t>A 31227-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45096</v>
+        <v>45832.80668981482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10076,14 +10076,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58780-2025</t>
+          <t>A 21080-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45986.72568287037</v>
+        <v>45777.60306712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10133,14 +10133,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53077-2021</t>
+          <t>A 41826-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44467</v>
+        <v>45902.67114583333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10190,14 +10190,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60351-2025</t>
+          <t>A 42615-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45995.30582175926</v>
+        <v>45905.71422453703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10247,14 +10247,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58356-2022</t>
+          <t>A 42618-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44893</v>
+        <v>45905.72167824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10304,14 +10304,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20078-2022</t>
+          <t>A 42620-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44698.27141203704</v>
+        <v>45905.72809027778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10361,14 +10361,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60953-2025</t>
+          <t>A 28312-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45999.65309027778</v>
+        <v>45818</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10418,14 +10418,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35325-2023</t>
+          <t>A 14810-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45146.43876157407</v>
+        <v>45743.32578703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10475,14 +10475,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49729-2025</t>
+          <t>A 22650-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45939</v>
+        <v>45447.89599537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>9.9</v>
+        <v>7.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10532,14 +10532,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 73961-2021</t>
+          <t>A 24500-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44553.68085648148</v>
+        <v>45798.39635416667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10551,13 +10551,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10594,14 +10589,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27258-2023</t>
+          <t>A 43637-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45096.61869212963</v>
+        <v>45911.73181712963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10614,7 +10609,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10651,14 +10646,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 29066-2022</t>
+          <t>A 43656-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44750.33450231481</v>
+        <v>45912.33863425926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10671,7 +10666,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10708,14 +10703,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61411-2025</t>
+          <t>A 24861-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46000</v>
+        <v>45799.47976851852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10728,7 +10723,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10765,14 +10760,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3504-2023</t>
+          <t>A 24866-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44950.27739583333</v>
+        <v>45799.48524305555</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10785,7 +10780,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10822,14 +10817,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61792-2025</t>
+          <t>A 44383-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46002.69364583334</v>
+        <v>45916.48497685185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10842,7 +10837,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10879,14 +10874,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61682-2025</t>
+          <t>A 44394-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46002.49144675926</v>
+        <v>45916.49435185185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10899,7 +10894,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10936,14 +10931,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 9828-2025</t>
+          <t>A 24879-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45716.57958333333</v>
+        <v>45799.49456018519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10956,7 +10951,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10993,14 +10988,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61677-2025</t>
+          <t>A 44126-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46002.48832175926</v>
+        <v>45915</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11013,7 +11008,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11050,14 +11045,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 36653-2022</t>
+          <t>A 25482-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44804</v>
+        <v>45802.92706018518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11070,7 +11065,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11107,14 +11102,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 23254-2023</t>
+          <t>A 6747-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45075</v>
+        <v>45700.60572916667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11127,7 +11122,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11164,14 +11159,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 64718-2023</t>
+          <t>A 26071-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45281</v>
+        <v>45805.31810185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11184,7 +11179,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11221,14 +11216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63511-2025</t>
+          <t>A 26361-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46013.49186342592</v>
+        <v>45806.27789351852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11241,7 +11236,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11278,14 +11273,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63220-2025</t>
+          <t>A 26069-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46010.49047453704</v>
+        <v>45805.31577546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11298,7 +11293,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11335,14 +11330,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52813-2021</t>
+          <t>A 15436-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44467</v>
+        <v>45401</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11355,7 +11350,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11392,14 +11387,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 47454-2023</t>
+          <t>A 6789-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45202.7725</v>
+        <v>45700.6591087963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11412,7 +11407,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11449,14 +11444,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34083-2023</t>
+          <t>A 46232-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45125</v>
+        <v>45925.28489583333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11469,7 +11464,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11506,14 +11501,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49030-2024</t>
+          <t>A 46235-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45594</v>
+        <v>45925.29628472222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11526,7 +11521,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11563,14 +11558,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6785-2025</t>
+          <t>A 46238-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45700.65645833333</v>
+        <v>45925.31177083333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11583,7 +11578,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11620,14 +11615,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6793-2025</t>
+          <t>A 59727-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45700.66422453704</v>
+        <v>45639.49689814815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11640,7 +11635,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11677,14 +11672,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 59727-2024</t>
+          <t>A 46245-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45639.49689814815</v>
+        <v>45925.32434027778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11697,7 +11692,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11734,14 +11729,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15434-2023</t>
+          <t>A 46971-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45020</v>
+        <v>45929.50806712963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11754,7 +11749,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11791,14 +11786,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 41918-2022</t>
+          <t>A 27955-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44830.36655092592</v>
+        <v>45817.53369212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11811,7 +11806,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11848,14 +11843,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 61531-2023</t>
+          <t>A 47645-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45265</v>
+        <v>45931.51586805555</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11867,13 +11862,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11910,14 +11900,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 26746-2023</t>
+          <t>A 7316-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45093</v>
+        <v>45345.36196759259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11930,7 +11920,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11967,14 +11957,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 42271-2024</t>
+          <t>A 30961-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45562</v>
+        <v>45113.4774537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11986,13 +11976,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12029,14 +12014,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 15776-2023</t>
+          <t>A 48628-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45021</v>
+        <v>45936.51135416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12049,7 +12034,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12086,14 +12071,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 51901-2022</t>
+          <t>A 16244-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44872.615</v>
+        <v>45749</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12105,8 +12090,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12143,14 +12133,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 26210-2024</t>
+          <t>A 23612-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45468.5937962963</v>
+        <v>44721</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12163,7 +12153,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12200,14 +12190,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 16244-2025</t>
+          <t>A 50728-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45749</v>
+        <v>45946.35024305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12219,13 +12209,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>15.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12262,14 +12247,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 41357-2023</t>
+          <t>A 30669-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45174</v>
+        <v>45831.51761574074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12282,7 +12267,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12319,14 +12304,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5128-2025</t>
+          <t>A 30654-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45691.56738425926</v>
+        <v>45831.50364583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12339,7 +12324,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12376,14 +12361,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58779-2025</t>
+          <t>A 30289-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45986</v>
+        <v>45827.46755787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12396,7 +12381,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12433,14 +12418,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9624-2026</t>
+          <t>A 31231-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46070</v>
+        <v>45832.81900462963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12452,13 +12437,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12495,14 +12475,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9627-2026</t>
+          <t>A 31235-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46070</v>
+        <v>45832.83453703704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12514,13 +12494,8 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12557,14 +12532,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6662-2024</t>
+          <t>A 31228-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45341</v>
+        <v>45832.8088425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12577,7 +12552,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12614,14 +12589,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8747-2024</t>
+          <t>A 48227-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45356</v>
+        <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12634,7 +12609,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12671,14 +12646,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 9641-2026</t>
+          <t>A 61533-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46070</v>
+        <v>45265</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12692,11 +12667,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12733,14 +12708,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 1664-2026</t>
+          <t>A 22846-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46034.55841435185</v>
+        <v>45448.5952662037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12753,7 +12728,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12790,14 +12765,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 23612-2022</t>
+          <t>A 53895-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44721</v>
+        <v>45961.42650462963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12810,7 +12785,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12847,14 +12822,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56393-2023</t>
+          <t>A 53845-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45243</v>
+        <v>45961.36596064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12867,7 +12842,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12904,14 +12879,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 32826-2023</t>
+          <t>A 27675-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45124.57806712963</v>
+        <v>45813.62960648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12924,7 +12899,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12961,14 +12936,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1450-2024</t>
+          <t>A 27678-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45303.81549768519</v>
+        <v>45813.63689814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12981,7 +12956,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13018,14 +12993,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 36905-2024</t>
+          <t>A 36508-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45538.6312962963</v>
+        <v>44804.49277777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13038,7 +13013,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13075,14 +13050,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53370-2024</t>
+          <t>A 61531-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45614</v>
+        <v>45265</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13094,8 +13069,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13132,14 +13112,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53078-2021</t>
+          <t>A 35030-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44467</v>
+        <v>45852.30276620371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13152,7 +13132,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13189,14 +13169,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 36406-2022</t>
+          <t>A 54833-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44803</v>
+        <v>45618</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13208,8 +13188,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13246,14 +13231,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 47022-2021</t>
+          <t>A 56240-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44446</v>
+        <v>45974.54376157407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13266,7 +13251,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13303,14 +13288,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 10996-2024</t>
+          <t>A 55918-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45370</v>
+        <v>45973.41554398148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13323,7 +13308,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13360,14 +13345,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 22846-2024</t>
+          <t>A 18268-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45448.5952662037</v>
+        <v>45762.36817129629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13380,7 +13365,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13417,14 +13402,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 30091-2024</t>
+          <t>A 56554-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45489</v>
+        <v>45975.48846064815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13437,7 +13422,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13474,14 +13459,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 48227-2022</t>
+          <t>A 57012-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44858</v>
+        <v>45978.81270833333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13494,7 +13479,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13531,14 +13516,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 43758-2023</t>
+          <t>A 57010-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45187.483125</v>
+        <v>45978.80552083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13551,7 +13536,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13588,14 +13573,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6747-2025</t>
+          <t>A 36335-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45700.60572916667</v>
+        <v>45868.43549768518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13608,7 +13593,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13645,14 +13630,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 50304-2024</t>
+          <t>A 39668-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45600.63541666666</v>
+        <v>45167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13665,7 +13650,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13702,14 +13687,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 43786-2023</t>
+          <t>A 36331-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45187.53253472222</v>
+        <v>45868.42884259259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13722,7 +13707,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13759,14 +13744,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 43787-2023</t>
+          <t>A 58780-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45187.53527777778</v>
+        <v>45986.72568287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13779,7 +13764,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13816,14 +13801,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 46254-2024</t>
+          <t>A 37198-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45581.59896990741</v>
+        <v>45875.67362268519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13836,7 +13821,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13873,14 +13858,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 47856-2022</t>
+          <t>A 5818-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44855.40680555555</v>
+        <v>44963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13893,7 +13878,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13930,14 +13915,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 19307-2023</t>
+          <t>A 37666-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45049.48990740741</v>
+        <v>45880.51369212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13950,7 +13935,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13987,14 +13972,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 56625-2022</t>
+          <t>A 37654-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44893.60265046296</v>
+        <v>45880.49107638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14007,7 +13992,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14044,14 +14029,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58962-2024</t>
+          <t>A 38176-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45636.58703703704</v>
+        <v>45882.638125</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14064,7 +14049,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14101,14 +14086,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43790-2023</t>
+          <t>A 37864-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45187.53984953704</v>
+        <v>45881.46743055555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14121,7 +14106,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14158,14 +14143,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 59026-2023</t>
+          <t>A 49729-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45252</v>
+        <v>45939</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14178,7 +14163,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.1</v>
+        <v>9.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14215,14 +14200,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58970-2024</t>
+          <t>A 38903-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45636.59827546297</v>
+        <v>45884</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14235,7 +14220,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14272,14 +14257,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 23259-2023</t>
+          <t>A 38510-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45075</v>
+        <v>45884.3912037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14292,7 +14277,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14329,14 +14314,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 5030-2022</t>
+          <t>A 60351-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44593.65674768519</v>
+        <v>45995.30582175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14349,7 +14334,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14386,14 +14371,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 19439-2025</t>
+          <t>A 38215-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45770.30033564815</v>
+        <v>45883.29547453704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14406,7 +14391,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14443,14 +14428,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 37962-2024</t>
+          <t>A 5030-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45544.5402662037</v>
+        <v>44593.65674768519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14463,7 +14448,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14500,14 +14485,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 37963-2024</t>
+          <t>A 40244-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45544.54657407408</v>
+        <v>45554.61420138889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14520,7 +14505,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14557,14 +14542,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 6789-2025</t>
+          <t>A 60953-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45700.6591087963</v>
+        <v>45999.65309027778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14577,7 +14562,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14614,14 +14599,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 58247-2021</t>
+          <t>A 64481-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44487</v>
+        <v>45280</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14634,7 +14619,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14671,14 +14656,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 58249-2021</t>
+          <t>A 61411-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44487</v>
+        <v>46000</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14691,7 +14676,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14728,14 +14713,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 25487-2022</t>
+          <t>A 61677-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44732.56100694444</v>
+        <v>46002.48832175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14748,7 +14733,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14785,14 +14770,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 6763-2025</t>
+          <t>A 61682-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45700.62923611111</v>
+        <v>46002.49144675926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14805,7 +14790,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14842,14 +14827,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 3987-2024</t>
+          <t>A 61792-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45322.93523148148</v>
+        <v>46002.69364583334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14862,7 +14847,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14899,14 +14884,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13913-2024</t>
+          <t>A 55074-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45391.76952546297</v>
+        <v>45237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14919,7 +14904,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14956,14 +14941,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 43760-2023</t>
+          <t>A 58356-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45187.48538194445</v>
+        <v>44893</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14976,7 +14961,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15013,14 +14998,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 43784-2023</t>
+          <t>A 63220-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45187</v>
+        <v>46010.49047453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15033,7 +15018,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15070,14 +15055,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55909-2022</t>
+          <t>A 63511-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44889.27608796296</v>
+        <v>46013.49186342592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15090,7 +15075,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15127,14 +15112,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 14355-2023</t>
+          <t>A 9627-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45012.40119212963</v>
+        <v>46070</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15144,6 +15129,11 @@
       <c r="E254" t="inlineStr">
         <is>
           <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -15184,14 +15174,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 40067-2023</t>
+          <t>A 9624-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45168</v>
+        <v>46070</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15203,8 +15193,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15241,14 +15236,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 22650-2024</t>
+          <t>A 9641-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45447.89599537037</v>
+        <v>46070</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15260,8 +15255,13 @@
           <t>GNOSJÖ</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15298,14 +15298,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 15653-2025</t>
+          <t>A 1664-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45748.40296296297</v>
+        <v>46034.55841435185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15352,17 +15352,17 @@
       </c>
       <c r="R257" s="2" t="inlineStr"/>
     </row>
-    <row r="258" ht="15" customHeight="1">
+    <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 23625-2022</t>
+          <t>A 58779-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44721.63243055555</v>
+        <v>45986</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15408,63 +15408,6 @@
         <v>0</v>
       </c>
       <c r="R258" s="2" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>A 16303-2023</t>
-        </is>
-      </c>
-      <c r="B259" s="1" t="n">
-        <v>45028</v>
-      </c>
-      <c r="C259" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G259" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0</v>
-      </c>
-      <c r="P259" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q259" t="n">
-        <v>0</v>
-      </c>
-      <c r="R259" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44757</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38355-2023</t>
+          <t>A 38197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45161</v>
+        <v>45882.67037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,133 +786,133 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38197-2025 karta.png", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/knärot/A 38197-2025 karta knärot.png", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38197-2025 FSC-klagomål.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38197-2025 FSC-klagomål mail.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38197-2025 tillsynsbegäran.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38197-2025 tillsynsbegäran mail.docx", "A 38197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 38355-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45161</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38355-2023 artfynd.xlsx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/kartor/A 38355-2023 karta.png", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomål/A 38355-2023 FSC-klagomål.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/klagomålsmail/A 38355-2023 FSC-klagomål mail.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsyn/A 38355-2023 tillsynsbegäran.docx", "A 38355-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0617/tillsynsmail/A 38355-2023 tillsynsbegäran mail.docx", "A 38355-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 38197-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45882.67037037037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GNOSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0617/artfynd/A 38197-2025 artfynd.xlsx", "A 38197-2025")</f>
-        <v